--- a/Laborshare/accounting.xlsx
+++ b/Laborshare/accounting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6781185f6f3ffc1a/Documents/public/Laborshare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{30B191AC-219C-4443-A6DC-AB1B40028C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9B5CDAB-F080-48B4-812D-5E3872D91C54}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{30B191AC-219C-4443-A6DC-AB1B40028C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EEE6ADC-8BDE-4E91-8010-3CBF9618CBC5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{129C318B-93D8-4464-A9AE-1723E55074BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{129C318B-93D8-4464-A9AE-1723E55074BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="32">
   <si>
     <t>location</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>PRT</t>
-  </si>
-  <si>
-    <t>gr_lsmarkup</t>
   </si>
   <si>
     <t>chg_sum</t>
@@ -308,6 +305,108 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>269328</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>39414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>614610</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>245686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85205C43-2786-43D3-9B9E-A110DBA84438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="39414"/>
+          <a:ext cx="345282" cy="206272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>291704</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>636986</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>230085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB566238-7E64-E681-3D3E-2ED661E69C3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3833813" y="23813"/>
+          <a:ext cx="345282" cy="206272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -609,11 +708,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03D5913-FB1B-4A2F-8016-1E46867F229D}">
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D95" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -625,7 +724,7 @@
     <col min="12" max="12" width="17.5703125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -633,32 +732,30 @@
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="20" t="s">
+      <c r="J1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -4808,6 +4905,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4815,11 +4913,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7BF10A-3E7C-425B-9B83-4A2051955AAD}">
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D88" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C92" sqref="C92"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4831,7 +4929,7 @@
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="21.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4839,32 +4937,30 @@
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="20" t="s">
+      <c r="J1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -4900,7 +4996,7 @@
         <v>-9.4621200000000003E-2</v>
       </c>
       <c r="L2" s="17">
-        <f>G2+H2</f>
+        <f t="shared" ref="L2:L33" si="0">G2+H2</f>
         <v>0.4612077</v>
       </c>
     </row>
@@ -4937,7 +5033,7 @@
         <v>-5.8299999999999997E-4</v>
       </c>
       <c r="L3" s="18">
-        <f>G3+H3</f>
+        <f t="shared" si="0"/>
         <v>0.46502750000000004</v>
       </c>
     </row>
@@ -4974,7 +5070,7 @@
         <v>-0.2232546</v>
       </c>
       <c r="L4" s="18">
-        <f>G4+H4</f>
+        <f t="shared" si="0"/>
         <v>0.34705629999999998</v>
       </c>
     </row>
@@ -5011,7 +5107,7 @@
         <v>-0.1187988</v>
       </c>
       <c r="L5" s="18">
-        <f>G5+H5</f>
+        <f t="shared" si="0"/>
         <v>0.75093670000000001</v>
       </c>
     </row>
@@ -5048,7 +5144,7 @@
         <v>-7.4724200000000005E-2</v>
       </c>
       <c r="L6" s="18">
-        <f>G6+H6</f>
+        <f t="shared" si="0"/>
         <v>0.4702189</v>
       </c>
     </row>
@@ -5085,7 +5181,7 @@
         <v>-0.23638970000000001</v>
       </c>
       <c r="L7" s="18">
-        <f>G7+H7</f>
+        <f t="shared" si="0"/>
         <v>0.65440770000000004</v>
       </c>
     </row>
@@ -5122,7 +5218,7 @@
         <v>-3.6259E-2</v>
       </c>
       <c r="L8" s="18">
-        <f>G8+H8</f>
+        <f t="shared" si="0"/>
         <v>0.37765100000000007</v>
       </c>
     </row>
@@ -5159,7 +5255,7 @@
         <v>-2.7168000000000001E-3</v>
       </c>
       <c r="L9" s="18">
-        <f>G9+H9</f>
+        <f t="shared" si="0"/>
         <v>0.11451549999999999</v>
       </c>
     </row>
@@ -5196,7 +5292,7 @@
         <v>-5.8611499999999997E-2</v>
       </c>
       <c r="L10" s="18">
-        <f>G10+H10</f>
+        <f t="shared" si="0"/>
         <v>0.40080779999999999</v>
       </c>
     </row>
@@ -5233,7 +5329,7 @@
         <v>-0.79866369999999998</v>
       </c>
       <c r="L11" s="18">
-        <f>G11+H11</f>
+        <f t="shared" si="0"/>
         <v>0.11369649999999998</v>
       </c>
     </row>
@@ -5270,7 +5366,7 @@
         <v>-9.4621200000000003E-2</v>
       </c>
       <c r="L12" s="18">
-        <f>G12+H12</f>
+        <f t="shared" si="0"/>
         <v>0.47849069999999999</v>
       </c>
     </row>
@@ -5307,7 +5403,7 @@
         <v>-5.8299999999999997E-4</v>
       </c>
       <c r="L13" s="18">
-        <f>G13+H13</f>
+        <f t="shared" si="0"/>
         <v>0.48830580000000001</v>
       </c>
     </row>
@@ -5344,7 +5440,7 @@
         <v>-0.2232546</v>
       </c>
       <c r="L14" s="18">
-        <f>G14+H14</f>
+        <f t="shared" si="0"/>
         <v>0.53897419999999996</v>
       </c>
     </row>
@@ -5381,7 +5477,7 @@
         <v>-0.1187988</v>
       </c>
       <c r="L15" s="18">
-        <f>G15+H15</f>
+        <f t="shared" si="0"/>
         <v>0.7537798</v>
       </c>
     </row>
@@ -5418,7 +5514,7 @@
         <v>-7.4724200000000005E-2</v>
       </c>
       <c r="L16" s="18">
-        <f>G16+H16</f>
+        <f t="shared" si="0"/>
         <v>0.51938119999999999</v>
       </c>
     </row>
@@ -5455,7 +5551,7 @@
         <v>-0.23638970000000001</v>
       </c>
       <c r="L17" s="18">
-        <f>G17+H17</f>
+        <f t="shared" si="0"/>
         <v>0.67921880000000001</v>
       </c>
     </row>
@@ -5492,7 +5588,7 @@
         <v>-3.6259E-2</v>
       </c>
       <c r="L18" s="18">
-        <f>G18+H18</f>
+        <f t="shared" si="0"/>
         <v>0.511019</v>
       </c>
     </row>
@@ -5529,7 +5625,7 @@
         <v>-2.7168000000000001E-3</v>
       </c>
       <c r="L19" s="18">
-        <f>G19+H19</f>
+        <f t="shared" si="0"/>
         <v>0.1353587</v>
       </c>
     </row>
@@ -5566,7 +5662,7 @@
         <v>-5.8611499999999997E-2</v>
       </c>
       <c r="L20" s="18">
-        <f>G20+H20</f>
+        <f t="shared" si="0"/>
         <v>0.47154970000000002</v>
       </c>
     </row>
@@ -5603,7 +5699,7 @@
         <v>-0.79866369999999998</v>
       </c>
       <c r="L21" s="18">
-        <f>G21+H21</f>
+        <f t="shared" si="0"/>
         <v>0.77746730000000008</v>
       </c>
     </row>
@@ -5640,7 +5736,7 @@
         <v>-9.4621200000000003E-2</v>
       </c>
       <c r="L22" s="18">
-        <f>G22+H22</f>
+        <f t="shared" si="0"/>
         <v>0.46997990000000001</v>
       </c>
     </row>
@@ -5677,7 +5773,7 @@
         <v>-5.8299999999999997E-4</v>
       </c>
       <c r="L23" s="18">
-        <f>G23+H23</f>
+        <f t="shared" si="0"/>
         <v>0.51987590000000006</v>
       </c>
     </row>
@@ -5714,7 +5810,7 @@
         <v>-0.2232546</v>
       </c>
       <c r="L24" s="18">
-        <f>G24+H24</f>
+        <f t="shared" si="0"/>
         <v>0.55327729999999997</v>
       </c>
     </row>
@@ -5751,7 +5847,7 @@
         <v>-0.1187988</v>
       </c>
       <c r="L25" s="18">
-        <f>G25+H25</f>
+        <f t="shared" si="0"/>
         <v>0.74929500000000004</v>
       </c>
     </row>
@@ -5788,7 +5884,7 @@
         <v>-7.4724200000000005E-2</v>
       </c>
       <c r="L26" s="18">
-        <f>G26+H26</f>
+        <f t="shared" si="0"/>
         <v>0.50809700000000002</v>
       </c>
     </row>
@@ -5825,7 +5921,7 @@
         <v>-0.23638970000000001</v>
       </c>
       <c r="L27" s="18">
-        <f>G27+H27</f>
+        <f t="shared" si="0"/>
         <v>0.68119669999999999</v>
       </c>
     </row>
@@ -5862,7 +5958,7 @@
         <v>-3.6259E-2</v>
       </c>
       <c r="L28" s="18">
-        <f>G28+H28</f>
+        <f t="shared" si="0"/>
         <v>0.494537</v>
       </c>
     </row>
@@ -5899,7 +5995,7 @@
         <v>-2.7168000000000001E-3</v>
       </c>
       <c r="L29" s="18">
-        <f>G29+H29</f>
+        <f t="shared" si="0"/>
         <v>0.12710439999999998</v>
       </c>
     </row>
@@ -5936,7 +6032,7 @@
         <v>-5.8611499999999997E-2</v>
       </c>
       <c r="L30" s="18">
-        <f>G30+H30</f>
+        <f t="shared" si="0"/>
         <v>0.43943159999999998</v>
       </c>
     </row>
@@ -5973,7 +6069,7 @@
         <v>-0.79866369999999998</v>
       </c>
       <c r="L31" s="18">
-        <f>G31+H31</f>
+        <f t="shared" si="0"/>
         <v>0.2418805</v>
       </c>
     </row>
@@ -6010,7 +6106,7 @@
         <v>-9.4621200000000003E-2</v>
       </c>
       <c r="L32" s="18">
-        <f>G32+H32</f>
+        <f t="shared" si="0"/>
         <v>0.73508529999999994</v>
       </c>
     </row>
@@ -6047,7 +6143,7 @@
         <v>-5.8299999999999997E-4</v>
       </c>
       <c r="L33" s="18">
-        <f>G33+H33</f>
+        <f t="shared" si="0"/>
         <v>0.46308189999999999</v>
       </c>
     </row>
@@ -6084,7 +6180,7 @@
         <v>-0.18660160000000001</v>
       </c>
       <c r="L34" s="18">
-        <f>G34+H34</f>
+        <f t="shared" ref="L34:L65" si="1">G34+H34</f>
         <v>0.44860169999999999</v>
       </c>
     </row>
@@ -6121,7 +6217,7 @@
         <v>-0.1187988</v>
       </c>
       <c r="L35" s="18">
-        <f>G35+H35</f>
+        <f t="shared" si="1"/>
         <v>0.72533829999999999</v>
       </c>
     </row>
@@ -6158,7 +6254,7 @@
         <v>-7.4724200000000005E-2</v>
       </c>
       <c r="L36" s="18">
-        <f>G36+H36</f>
+        <f t="shared" si="1"/>
         <v>0.50855399999999995</v>
       </c>
     </row>
@@ -6195,7 +6291,7 @@
         <v>-0.23638970000000001</v>
       </c>
       <c r="L37" s="18">
-        <f>G37+H37</f>
+        <f t="shared" si="1"/>
         <v>0.68320420000000004</v>
       </c>
     </row>
@@ -6232,7 +6328,7 @@
         <v>-3.6259E-2</v>
       </c>
       <c r="L38" s="18">
-        <f>G38+H38</f>
+        <f t="shared" si="1"/>
         <v>0.45519680000000001</v>
       </c>
     </row>
@@ -6269,7 +6365,7 @@
         <v>-2.7168000000000001E-3</v>
       </c>
       <c r="L39" s="18">
-        <f>G39+H39</f>
+        <f t="shared" si="1"/>
         <v>0.13381189999999998</v>
       </c>
     </row>
@@ -6306,7 +6402,7 @@
         <v>-5.8611499999999997E-2</v>
       </c>
       <c r="L40" s="18">
-        <f>G40+H40</f>
+        <f t="shared" si="1"/>
         <v>0.4364383</v>
       </c>
     </row>
@@ -6343,7 +6439,7 @@
         <v>-0.79866369999999998</v>
       </c>
       <c r="L41" s="18">
-        <f>G41+H41</f>
+        <f t="shared" si="1"/>
         <v>-1.7125120000000003</v>
       </c>
     </row>
@@ -6380,7 +6476,7 @@
         <v>-9.4621200000000003E-2</v>
       </c>
       <c r="L42" s="18">
-        <f>G42+H42</f>
+        <f t="shared" si="1"/>
         <v>0.47907859999999997</v>
       </c>
     </row>
@@ -6417,7 +6513,7 @@
         <v>-5.8299999999999997E-4</v>
       </c>
       <c r="L43" s="18">
-        <f>G43+H43</f>
+        <f t="shared" si="1"/>
         <v>0.48928880000000002</v>
       </c>
     </row>
@@ -6454,7 +6550,7 @@
         <v>-0.2232546</v>
       </c>
       <c r="L44" s="18">
-        <f>G44+H44</f>
+        <f t="shared" si="1"/>
         <v>0.54297189999999995</v>
       </c>
     </row>
@@ -6491,7 +6587,7 @@
         <v>-0.1187988</v>
       </c>
       <c r="L45" s="18">
-        <f>G45+H45</f>
+        <f t="shared" si="1"/>
         <v>0.74851489999999998</v>
       </c>
     </row>
@@ -6528,7 +6624,7 @@
         <v>-7.4724200000000005E-2</v>
       </c>
       <c r="L46" s="18">
-        <f>G46+H46</f>
+        <f t="shared" si="1"/>
         <v>0.51773829999999998</v>
       </c>
     </row>
@@ -6565,7 +6661,7 @@
         <v>-0.23638970000000001</v>
       </c>
       <c r="L47" s="18">
-        <f>G47+H47</f>
+        <f t="shared" si="1"/>
         <v>0.67728290000000002</v>
       </c>
     </row>
@@ -6602,7 +6698,7 @@
         <v>-3.6259E-2</v>
       </c>
       <c r="L48" s="18">
-        <f>G48+H48</f>
+        <f t="shared" si="1"/>
         <v>0.50781500000000002</v>
       </c>
     </row>
@@ -6639,7 +6735,7 @@
         <v>-2.7168000000000001E-3</v>
       </c>
       <c r="L49" s="18">
-        <f>G49+H49</f>
+        <f t="shared" si="1"/>
         <v>0.13579549999999999</v>
       </c>
     </row>
@@ -6676,7 +6772,7 @@
         <v>-5.8611499999999997E-2</v>
       </c>
       <c r="L50" s="18">
-        <f>G50+H50</f>
+        <f t="shared" si="1"/>
         <v>0.47238659999999999</v>
       </c>
     </row>
@@ -6713,7 +6809,7 @@
         <v>-0.79866369999999998</v>
       </c>
       <c r="L51" s="18">
-        <f>G51+H51</f>
+        <f t="shared" si="1"/>
         <v>0.48360409999999998</v>
       </c>
     </row>
@@ -6750,7 +6846,7 @@
         <v>-9.4621200000000003E-2</v>
       </c>
       <c r="L52" s="18">
-        <f>G52+H52</f>
+        <f t="shared" si="1"/>
         <v>0.31703429999999999</v>
       </c>
     </row>
@@ -6787,7 +6883,7 @@
         <v>-5.8299999999999997E-4</v>
       </c>
       <c r="L53" s="18">
-        <f>G53+H53</f>
+        <f t="shared" si="1"/>
         <v>0.36123570000000005</v>
       </c>
     </row>
@@ -6824,7 +6920,7 @@
         <v>-0.2232546</v>
       </c>
       <c r="L54" s="18">
-        <f>G54+H54</f>
+        <f t="shared" si="1"/>
         <v>0.34965499999999994</v>
       </c>
     </row>
@@ -6861,7 +6957,7 @@
         <v>-0.1187988</v>
       </c>
       <c r="L55" s="18">
-        <f>G55+H55</f>
+        <f t="shared" si="1"/>
         <v>0.68539380000000005</v>
       </c>
     </row>
@@ -6898,7 +6994,7 @@
         <v>-7.4724200000000005E-2</v>
       </c>
       <c r="L56" s="18">
-        <f>G56+H56</f>
+        <f t="shared" si="1"/>
         <v>0.4629219</v>
       </c>
     </row>
@@ -6935,7 +7031,7 @@
         <v>-0.23638970000000001</v>
       </c>
       <c r="L57" s="18">
-        <f>G57+H57</f>
+        <f t="shared" si="1"/>
         <v>0.63602760000000003</v>
       </c>
     </row>
@@ -6972,7 +7068,7 @@
         <v>-3.6259E-2</v>
       </c>
       <c r="L58" s="18">
-        <f>G58+H58</f>
+        <f t="shared" si="1"/>
         <v>0.41955160000000002</v>
       </c>
     </row>
@@ -7009,7 +7105,7 @@
         <v>-2.7168000000000001E-3</v>
       </c>
       <c r="L59" s="18">
-        <f>G59+H59</f>
+        <f t="shared" si="1"/>
         <v>8.8040399999999991E-2</v>
       </c>
     </row>
@@ -7046,7 +7142,7 @@
         <v>-5.8611499999999997E-2</v>
       </c>
       <c r="L60" s="18">
-        <f>G60+H60</f>
+        <f t="shared" si="1"/>
         <v>0.38943240000000001</v>
       </c>
     </row>
@@ -7083,7 +7179,7 @@
         <v>-0.79866369999999998</v>
       </c>
       <c r="L61" s="18">
-        <f>G61+H61</f>
+        <f t="shared" si="1"/>
         <v>-1.6373099</v>
       </c>
     </row>
@@ -7120,7 +7216,7 @@
         <v>-9.4621200000000003E-2</v>
       </c>
       <c r="L62" s="18">
-        <f>G62+H62</f>
+        <f t="shared" si="1"/>
         <v>0.31221279999999996</v>
       </c>
     </row>
@@ -7157,7 +7253,7 @@
         <v>-5.8299999999999997E-4</v>
       </c>
       <c r="L63" s="18">
-        <f>G63+H63</f>
+        <f t="shared" si="1"/>
         <v>0.40589459999999999</v>
       </c>
     </row>
@@ -7194,7 +7290,7 @@
         <v>-0.2232546</v>
       </c>
       <c r="L64" s="18">
-        <f>G64+H64</f>
+        <f t="shared" si="1"/>
         <v>0.6010340999999999</v>
       </c>
     </row>
@@ -7231,7 +7327,7 @@
         <v>-0.1187988</v>
       </c>
       <c r="L65" s="18">
-        <f>G65+H65</f>
+        <f t="shared" si="1"/>
         <v>0.7776634</v>
       </c>
     </row>
@@ -7268,7 +7364,7 @@
         <v>-7.4724200000000005E-2</v>
       </c>
       <c r="L66" s="18">
-        <f>G66+H66</f>
+        <f t="shared" ref="L66:L97" si="2">G66+H66</f>
         <v>0.49667249999999996</v>
       </c>
     </row>
@@ -7305,7 +7401,7 @@
         <v>-0.23638970000000001</v>
       </c>
       <c r="L67" s="18">
-        <f>G67+H67</f>
+        <f t="shared" si="2"/>
         <v>0.66658050000000002</v>
       </c>
     </row>
@@ -7342,7 +7438,7 @@
         <v>-3.6259E-2</v>
       </c>
       <c r="L68" s="18">
-        <f>G68+H68</f>
+        <f t="shared" si="2"/>
         <v>0.42305020000000004</v>
       </c>
     </row>
@@ -7379,7 +7475,7 @@
         <v>-2.7168000000000001E-3</v>
       </c>
       <c r="L69" s="18">
-        <f>G69+H69</f>
+        <f t="shared" si="2"/>
         <v>6.7003199999999985E-2</v>
       </c>
     </row>
@@ -7416,7 +7512,7 @@
         <v>-5.8611499999999997E-2</v>
       </c>
       <c r="L70" s="18">
-        <f>G70+H70</f>
+        <f t="shared" si="2"/>
         <v>0.35860919999999996</v>
       </c>
     </row>
@@ -7453,7 +7549,7 @@
         <v>-0.79866369999999998</v>
       </c>
       <c r="L71" s="18">
-        <f>G71+H71</f>
+        <f t="shared" si="2"/>
         <v>-1.7839262999999999</v>
       </c>
     </row>
@@ -7490,7 +7586,7 @@
         <v>-9.4621200000000003E-2</v>
       </c>
       <c r="L72" s="18">
-        <f>G72+H72</f>
+        <f t="shared" si="2"/>
         <v>0.41719649999999997</v>
       </c>
     </row>
@@ -7527,7 +7623,7 @@
         <v>-5.8299999999999997E-4</v>
       </c>
       <c r="L73" s="18">
-        <f>G73+H73</f>
+        <f t="shared" si="2"/>
         <v>0.49975639999999999</v>
       </c>
     </row>
@@ -7564,7 +7660,7 @@
         <v>-0.2232546</v>
       </c>
       <c r="L74" s="18">
-        <f>G74+H74</f>
+        <f t="shared" si="2"/>
         <v>0.57605699999999993</v>
       </c>
     </row>
@@ -7601,7 +7697,7 @@
         <v>-0.1187988</v>
       </c>
       <c r="L75" s="18">
-        <f>G75+H75</f>
+        <f t="shared" si="2"/>
         <v>0.82761680000000004</v>
       </c>
     </row>
@@ -7638,7 +7734,7 @@
         <v>-7.4724200000000005E-2</v>
       </c>
       <c r="L76" s="18">
-        <f>G76+H76</f>
+        <f t="shared" si="2"/>
         <v>0.51310979999999995</v>
       </c>
     </row>
@@ -7675,7 +7771,7 @@
         <v>-0.23638970000000001</v>
       </c>
       <c r="L77" s="18">
-        <f>G77+H77</f>
+        <f t="shared" si="2"/>
         <v>0.68009850000000005</v>
       </c>
     </row>
@@ -7712,7 +7808,7 @@
         <v>-3.6259E-2</v>
       </c>
       <c r="L78" s="18">
-        <f>G78+H78</f>
+        <f t="shared" si="2"/>
         <v>0.49773930000000005</v>
       </c>
     </row>
@@ -7749,7 +7845,7 @@
         <v>-2.7168000000000001E-3</v>
       </c>
       <c r="L79" s="18">
-        <f>G79+H79</f>
+        <f t="shared" si="2"/>
         <v>0.130747</v>
       </c>
     </row>
@@ -7786,7 +7882,7 @@
         <v>-5.8611499999999997E-2</v>
       </c>
       <c r="L80" s="18">
-        <f>G80+H80</f>
+        <f t="shared" si="2"/>
         <v>0.51397629999999994</v>
       </c>
     </row>
@@ -7823,7 +7919,7 @@
         <v>-0.79866369999999998</v>
       </c>
       <c r="L81" s="18">
-        <f>G81+H81</f>
+        <f t="shared" si="2"/>
         <v>-1.4310868000000001</v>
       </c>
     </row>
@@ -7860,7 +7956,7 @@
         <v>-9.4621200000000003E-2</v>
       </c>
       <c r="L82" s="18">
-        <f>G82+H82</f>
+        <f t="shared" si="2"/>
         <v>0.42533270000000001</v>
       </c>
     </row>
@@ -7897,7 +7993,7 @@
         <v>-5.8299999999999997E-4</v>
       </c>
       <c r="L83" s="18">
-        <f>G83+H83</f>
+        <f t="shared" si="2"/>
         <v>0.40696500000000002</v>
       </c>
     </row>
@@ -7934,7 +8030,7 @@
         <v>-0.2232546</v>
       </c>
       <c r="L84" s="18">
-        <f>G84+H84</f>
+        <f t="shared" si="2"/>
         <v>0.42183439999999994</v>
       </c>
     </row>
@@ -7971,7 +8067,7 @@
         <v>-0.1187988</v>
       </c>
       <c r="L85" s="18">
-        <f>G85+H85</f>
+        <f t="shared" si="2"/>
         <v>0.6536054</v>
       </c>
     </row>
@@ -8008,7 +8104,7 @@
         <v>-7.4724200000000005E-2</v>
       </c>
       <c r="L86" s="18">
-        <f>G86+H86</f>
+        <f t="shared" si="2"/>
         <v>0.47262129999999997</v>
       </c>
     </row>
@@ -8045,7 +8141,7 @@
         <v>-0.23638970000000001</v>
       </c>
       <c r="L87" s="18">
-        <f>G87+H87</f>
+        <f t="shared" si="2"/>
         <v>0.66367810000000005</v>
       </c>
     </row>
@@ -8082,7 +8178,7 @@
         <v>-3.6259E-2</v>
       </c>
       <c r="L88" s="18">
-        <f>G88+H88</f>
+        <f t="shared" si="2"/>
         <v>0.4358052</v>
       </c>
     </row>
@@ -8119,7 +8215,7 @@
         <v>-2.7168000000000001E-3</v>
       </c>
       <c r="L89" s="18">
-        <f>G89+H89</f>
+        <f t="shared" si="2"/>
         <v>0.1253195</v>
       </c>
     </row>
@@ -8156,7 +8252,7 @@
         <v>-5.8611499999999997E-2</v>
       </c>
       <c r="L90" s="18">
-        <f>G90+H90</f>
+        <f t="shared" si="2"/>
         <v>0.25971959999999999</v>
       </c>
     </row>
@@ -8193,7 +8289,7 @@
         <v>-0.79866369999999998</v>
       </c>
       <c r="L91" s="18">
-        <f>G91+H91</f>
+        <f t="shared" si="2"/>
         <v>0.63792389999999999</v>
       </c>
     </row>
@@ -8230,7 +8326,7 @@
         <v>-9.4621200000000003E-2</v>
       </c>
       <c r="L92" s="18">
-        <f>G92+H92</f>
+        <f t="shared" si="2"/>
         <v>0.1635605</v>
       </c>
     </row>
@@ -8267,7 +8363,7 @@
         <v>-5.8299999999999997E-4</v>
       </c>
       <c r="L93" s="18">
-        <f>G93+H93</f>
+        <f t="shared" si="2"/>
         <v>0.76224390000000009</v>
       </c>
     </row>
@@ -8304,7 +8400,7 @@
         <v>-0.2232546</v>
       </c>
       <c r="L94" s="18">
-        <f>G94+H94</f>
+        <f t="shared" si="2"/>
         <v>0.50529939999999995</v>
       </c>
     </row>
@@ -8341,7 +8437,7 @@
         <v>-0.1187988</v>
       </c>
       <c r="L95" s="18">
-        <f>G95+H95</f>
+        <f t="shared" si="2"/>
         <v>0.60413870000000003</v>
       </c>
     </row>
@@ -8378,7 +8474,7 @@
         <v>-7.4724200000000005E-2</v>
       </c>
       <c r="L96" s="18">
-        <f>G96+H96</f>
+        <f t="shared" si="2"/>
         <v>0.64308539999999992</v>
       </c>
     </row>
@@ -8415,7 +8511,7 @@
         <v>-0.23638970000000001</v>
       </c>
       <c r="L97" s="18">
-        <f>G97+H97</f>
+        <f t="shared" si="2"/>
         <v>0.63206229999999997</v>
       </c>
     </row>
@@ -8452,7 +8548,7 @@
         <v>-3.6259E-2</v>
       </c>
       <c r="L98" s="18">
-        <f>G98+H98</f>
+        <f t="shared" ref="L98:L111" si="3">G98+H98</f>
         <v>0.75536140000000007</v>
       </c>
     </row>
@@ -8489,7 +8585,7 @@
         <v>-2.7168000000000001E-3</v>
       </c>
       <c r="L99" s="18">
-        <f>G99+H99</f>
+        <f t="shared" si="3"/>
         <v>-2.485770000000001E-2</v>
       </c>
     </row>
@@ -8526,7 +8622,7 @@
         <v>-5.8611499999999997E-2</v>
       </c>
       <c r="L100" s="18">
-        <f>G100+H100</f>
+        <f t="shared" si="3"/>
         <v>0.57819520000000002</v>
       </c>
     </row>
@@ -8563,7 +8659,7 @@
         <v>-0.79866369999999998</v>
       </c>
       <c r="L101" s="18">
-        <f>G101+H101</f>
+        <f t="shared" si="3"/>
         <v>-3.3742229999999998</v>
       </c>
     </row>
@@ -8600,7 +8696,7 @@
         <v>-9.4621200000000003E-2</v>
       </c>
       <c r="L102" s="18">
-        <f>G102+H102</f>
+        <f t="shared" si="3"/>
         <v>0.43274269999999998</v>
       </c>
     </row>
@@ -8637,7 +8733,7 @@
         <v>-5.8299999999999997E-4</v>
       </c>
       <c r="L103" s="18">
-        <f>G103+H103</f>
+        <f t="shared" si="3"/>
         <v>0.5091002</v>
       </c>
     </row>
@@ -8674,7 +8770,7 @@
         <v>-0.2232546</v>
       </c>
       <c r="L104" s="18">
-        <f>G104+H104</f>
+        <f t="shared" si="3"/>
         <v>0.52659299999999998</v>
       </c>
     </row>
@@ -8711,7 +8807,7 @@
         <v>-0.1187988</v>
       </c>
       <c r="L105" s="18">
-        <f>G105+H105</f>
+        <f t="shared" si="3"/>
         <v>0.71063880000000001</v>
       </c>
     </row>
@@ -8748,7 +8844,7 @@
         <v>-7.4724200000000005E-2</v>
       </c>
       <c r="L106" s="18">
-        <f>G106+H106</f>
+        <f t="shared" si="3"/>
         <v>0.49886569999999997</v>
       </c>
     </row>
@@ -8785,7 +8881,7 @@
         <v>-0.23638970000000001</v>
       </c>
       <c r="L107" s="18">
-        <f>G107+H107</f>
+        <f t="shared" si="3"/>
         <v>0.66702990000000006</v>
       </c>
     </row>
@@ -8822,7 +8918,7 @@
         <v>-3.6259E-2</v>
       </c>
       <c r="L108" s="18">
-        <f>G108+H108</f>
+        <f t="shared" si="3"/>
         <v>0.50657370000000002</v>
       </c>
     </row>
@@ -8859,7 +8955,7 @@
         <v>-2.7168000000000001E-3</v>
       </c>
       <c r="L109" s="18">
-        <f>G109+H109</f>
+        <f t="shared" si="3"/>
         <v>0.12692959999999998</v>
       </c>
     </row>
@@ -8896,7 +8992,7 @@
         <v>-5.8611499999999997E-2</v>
       </c>
       <c r="L110" s="18">
-        <f>G110+H110</f>
+        <f t="shared" si="3"/>
         <v>0.38635849999999999</v>
       </c>
     </row>
@@ -8933,7 +9029,7 @@
         <v>-0.79866369999999998</v>
       </c>
       <c r="L111" s="18">
-        <f>G111+H111</f>
+        <f t="shared" si="3"/>
         <v>0.30295450000000002</v>
       </c>
     </row>
@@ -9015,5 +9111,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Laborshare/accounting.xlsx
+++ b/Laborshare/accounting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acube\Dropbox\Study\UC Davis\Writings\LaborShareKorea\Code_GELS_ver23 (taskwage)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F359AB3C-8B08-49CE-B1DE-FFD447F53EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D14499-2A90-403B-9AC5-87DD91B7E572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{129C318B-93D8-4464-A9AE-1723E55074BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{129C318B-93D8-4464-A9AE-1723E55074BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="3" r:id="rId1"/>
@@ -337,8 +337,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="368499" cy="205121"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -380,6 +380,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -395,7 +396,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -407,7 +408,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -416,7 +417,7 @@
                     <m:sSubSup>
                       <m:sSubSupPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100">
+                          <a:rPr lang="en-US" sz="1100" i="1">
                             <a:solidFill>
                               <a:srgbClr val="836967"/>
                             </a:solidFill>
@@ -457,7 +458,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -553,8 +554,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="368499" cy="205121"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -596,6 +597,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -626,7 +628,7 @@
                     <m:sSubSup>
                       <m:sSubSupPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100">
+                          <a:rPr lang="en-US" sz="1100" i="1">
                             <a:solidFill>
                               <a:srgbClr val="836967"/>
                             </a:solidFill>
@@ -667,7 +669,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -1049,11 +1051,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F153CB-9686-4BFE-969C-D9DD41371C77}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G105" sqref="G105"/>
+      <selection pane="bottomRight" activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1097,19 +1099,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="16">
-        <v>9.1899999999999998E-5</v>
+        <v>0.14099780000000001</v>
       </c>
       <c r="E2" s="16">
-        <v>2.351E-2</v>
+        <v>0.64034440000000004</v>
       </c>
       <c r="F2" s="16">
-        <v>1.4815E-3</v>
+        <v>2.7480999999999998E-3</v>
       </c>
       <c r="G2" s="16">
-        <v>3.31416E-2</v>
+        <v>5.9298400000000001E-2</v>
       </c>
       <c r="H2" s="16">
-        <v>-6.6374799999999998E-2</v>
+        <v>-6.91856E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1121,19 +1123,19 @@
         <v>12</v>
       </c>
       <c r="D3" s="16">
-        <v>5.4099999999999999E-6</v>
+        <v>8.3046000000000005E-3</v>
       </c>
       <c r="E3" s="16">
-        <v>2.351E-2</v>
+        <v>0.64034440000000004</v>
       </c>
       <c r="F3" s="16">
-        <v>4.0189799999999998E-2</v>
+        <v>7.4550699999999998E-2</v>
       </c>
       <c r="G3" s="16">
-        <v>0.1262807</v>
+        <v>0.22594710000000001</v>
       </c>
       <c r="H3" s="16">
-        <v>-7.0271999999999999E-3</v>
+        <v>-7.3248000000000002E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1145,19 +1147,19 @@
         <v>13</v>
       </c>
       <c r="D4" s="16">
-        <v>4.7800000000000003E-5</v>
+        <v>7.3383299999999999E-2</v>
       </c>
       <c r="E4" s="16">
-        <v>2.351E-2</v>
+        <v>0.64034440000000004</v>
       </c>
       <c r="F4" s="16">
-        <v>8.8674900000000001E-2</v>
+        <v>0.16448869999999999</v>
       </c>
       <c r="G4" s="16">
-        <v>0.1642015</v>
+        <v>0.29379670000000002</v>
       </c>
       <c r="H4" s="16">
-        <v>3.8455700000000002E-2</v>
+        <v>4.00842E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1169,19 +1171,19 @@
         <v>14</v>
       </c>
       <c r="D5" s="16">
-        <v>-1.2921E-3</v>
+        <v>-1.982796</v>
       </c>
       <c r="E5" s="16">
-        <v>2.351E-2</v>
+        <v>0.64034440000000004</v>
       </c>
       <c r="F5" s="16">
-        <v>2.292942</v>
+        <v>4.253323</v>
       </c>
       <c r="G5" s="16">
-        <v>2.3682569999999998</v>
+        <v>4.2373919999999998</v>
       </c>
       <c r="H5" s="16">
-        <v>-2.6873719999999999</v>
+        <v>-2.8011750000000002</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1193,19 +1195,19 @@
         <v>15</v>
       </c>
       <c r="D6" s="16">
-        <v>2.5299999999999999E-6</v>
+        <v>3.8869E-3</v>
       </c>
       <c r="E6" s="16">
-        <v>2.351E-2</v>
+        <v>0.64034440000000004</v>
       </c>
       <c r="F6" s="16">
-        <v>8.06558E-2</v>
+        <v>0.14961350000000001</v>
       </c>
       <c r="G6" s="16">
-        <v>0.1681868</v>
+        <v>0.30092730000000001</v>
       </c>
       <c r="H6" s="16">
-        <v>1.83123E-2</v>
+        <v>1.9087799999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1217,19 +1219,19 @@
         <v>16</v>
       </c>
       <c r="D7" s="16">
-        <v>8.1369999999999999E-4</v>
+        <v>1.2487140000000001</v>
       </c>
       <c r="E7" s="16">
-        <v>2.351E-2</v>
+        <v>0.64034440000000004</v>
       </c>
       <c r="F7" s="16">
-        <v>2.39446E-2</v>
+        <v>4.4416400000000002E-2</v>
       </c>
       <c r="G7" s="16">
-        <v>8.39646E-2</v>
+        <v>0.15023329999999999</v>
       </c>
       <c r="H7" s="16">
-        <v>-3.9564500000000002E-2</v>
+        <v>-4.1239900000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1241,19 +1243,19 @@
         <v>17</v>
       </c>
       <c r="D8" s="16">
-        <v>8.3469999999999996E-4</v>
+        <v>1.280993</v>
       </c>
       <c r="E8" s="16">
-        <v>2.351E-2</v>
+        <v>0.64034440000000004</v>
       </c>
       <c r="F8" s="16">
-        <v>-3.22659E-2</v>
+        <v>-5.9852099999999998E-2</v>
       </c>
       <c r="G8" s="16">
-        <v>3.2845800000000001E-2</v>
+        <v>5.8769200000000001E-2</v>
       </c>
       <c r="H8" s="16">
-        <v>-9.3216900000000005E-2</v>
+        <v>-9.7164399999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1265,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="D9" s="16">
-        <v>3.1090000000000002E-4</v>
+        <v>0.47718159999999998</v>
       </c>
       <c r="E9" s="16">
-        <v>2.351E-2</v>
+        <v>0.64034440000000004</v>
       </c>
       <c r="F9" s="16">
-        <v>6.6802700000000007E-2</v>
+        <v>0.1239165</v>
       </c>
       <c r="G9" s="16">
-        <v>0.10950559999999999</v>
+        <v>0.1959323</v>
       </c>
       <c r="H9" s="16">
-        <v>1.5637100000000001E-2</v>
+        <v>1.6299299999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1289,19 +1291,19 @@
         <v>19</v>
       </c>
       <c r="D10" s="16">
-        <v>2.7230000000000001E-4</v>
+        <v>0.41790519999999998</v>
       </c>
       <c r="E10" s="16">
-        <v>2.351E-2</v>
+        <v>0.64034440000000004</v>
       </c>
       <c r="F10" s="16">
-        <v>3.9066999999999999E-3</v>
+        <v>7.2468000000000003E-3</v>
       </c>
       <c r="G10" s="16">
-        <v>7.9977199999999998E-2</v>
+        <v>0.1430988</v>
       </c>
       <c r="H10" s="16">
-        <v>-4.73458E-2</v>
+        <v>-4.9350699999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1313,19 +1315,19 @@
         <v>22</v>
       </c>
       <c r="D11" s="16">
-        <v>1.5831E-3</v>
+        <v>2.4295070000000001</v>
       </c>
       <c r="E11" s="16">
-        <v>2.351E-2</v>
+        <v>0.64034440000000004</v>
       </c>
       <c r="F11" s="16">
-        <v>6.7250599999999994E-2</v>
+        <v>0.1247475</v>
       </c>
       <c r="G11" s="16">
-        <v>0.1410518</v>
+        <v>0.2523763</v>
       </c>
       <c r="H11" s="16">
-        <v>1.0626099999999999E-2</v>
+        <v>1.10761E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1337,19 +1339,19 @@
         <v>21</v>
       </c>
       <c r="D12" s="16">
-        <v>2.331E-4</v>
+        <v>0.35773280000000002</v>
       </c>
       <c r="E12" s="16">
-        <v>2.351E-2</v>
+        <v>0.64034440000000004</v>
       </c>
       <c r="F12" s="16">
-        <v>-1.5965799999999999E-2</v>
+        <v>-2.9616099999999999E-2</v>
       </c>
       <c r="G12" s="16">
-        <v>9.2527600000000002E-2</v>
+        <v>0.1655546</v>
       </c>
       <c r="H12" s="16">
-        <v>-6.8516900000000006E-2</v>
+        <v>-7.1418300000000004E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1361,19 +1363,19 @@
         <v>11</v>
       </c>
       <c r="D13" s="16">
-        <v>1.239E-4</v>
+        <v>0.1901188</v>
       </c>
       <c r="E13" s="16">
-        <v>2.4254299999999999E-2</v>
+        <v>0.66061930000000002</v>
       </c>
       <c r="F13" s="16">
-        <v>-3.0712000000000001E-3</v>
+        <v>-5.6969999999999998E-3</v>
       </c>
       <c r="G13" s="16">
-        <v>4.3854400000000002E-2</v>
+        <v>7.8466300000000003E-2</v>
       </c>
       <c r="H13" s="16">
-        <v>-7.9561099999999996E-2</v>
+        <v>-8.2930299999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1385,19 +1387,19 @@
         <v>12</v>
       </c>
       <c r="D14" s="16">
-        <v>8.5099999999999998E-6</v>
+        <v>1.3065500000000001E-2</v>
       </c>
       <c r="E14" s="16">
-        <v>2.4254299999999999E-2</v>
+        <v>0.66061930000000002</v>
       </c>
       <c r="F14" s="16">
-        <v>-1.8352500000000001E-2</v>
+        <v>-3.4043299999999999E-2</v>
       </c>
       <c r="G14" s="16">
-        <v>6.6380099999999997E-2</v>
+        <v>0.11877020000000001</v>
       </c>
       <c r="H14" s="16">
-        <v>-7.0590799999999995E-2</v>
+        <v>-7.3580099999999996E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1409,19 +1411,19 @@
         <v>13</v>
       </c>
       <c r="D15" s="16">
-        <v>-1.494E-4</v>
+        <v>-0.22920199999999999</v>
       </c>
       <c r="E15" s="16">
-        <v>2.4254299999999999E-2</v>
+        <v>0.66061930000000002</v>
       </c>
       <c r="F15" s="16">
-        <v>5.0121600000000002E-2</v>
+        <v>9.2973700000000006E-2</v>
       </c>
       <c r="G15" s="16">
-        <v>8.8445399999999993E-2</v>
+        <v>0.15825049999999999</v>
       </c>
       <c r="H15" s="16">
-        <v>-4.0334999999999998E-3</v>
+        <v>-4.2043000000000002E-3</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1433,19 +1435,19 @@
         <v>14</v>
       </c>
       <c r="D16" s="16">
-        <v>1.326E-4</v>
+        <v>0.2034186</v>
       </c>
       <c r="E16" s="16">
-        <v>2.4254299999999999E-2</v>
+        <v>0.66061930000000002</v>
       </c>
       <c r="F16" s="16">
-        <v>-0.32223839999999998</v>
+        <v>-0.59774039999999995</v>
       </c>
       <c r="G16" s="16">
-        <v>-0.31292130000000001</v>
+        <v>-0.55989299999999997</v>
       </c>
       <c r="H16" s="16">
-        <v>-0.40764850000000002</v>
+        <v>-0.42491119999999999</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1457,19 +1459,19 @@
         <v>15</v>
       </c>
       <c r="D17" s="16">
-        <v>3.3699999999999999E-6</v>
+        <v>5.1671E-3</v>
       </c>
       <c r="E17" s="16">
-        <v>2.4254299999999999E-2</v>
+        <v>0.66061930000000002</v>
       </c>
       <c r="F17" s="16">
-        <v>5.2186999999999997E-3</v>
+        <v>9.6805999999999993E-3</v>
       </c>
       <c r="G17" s="16">
-        <v>5.6165600000000003E-2</v>
+        <v>0.100494</v>
       </c>
       <c r="H17" s="16">
-        <v>-8.0352900000000005E-2</v>
+        <v>-8.3755599999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1481,19 +1483,19 @@
         <v>16</v>
       </c>
       <c r="D18" s="16">
-        <v>6.3639999999999996E-4</v>
+        <v>0.97658290000000003</v>
       </c>
       <c r="E18" s="16">
-        <v>2.4254299999999999E-2</v>
+        <v>0.66061930000000002</v>
       </c>
       <c r="F18" s="16">
-        <v>1.14082E-2</v>
+        <v>2.1161800000000001E-2</v>
       </c>
       <c r="G18" s="16">
-        <v>5.9491200000000001E-2</v>
+        <v>0.10644430000000001</v>
       </c>
       <c r="H18" s="16">
-        <v>-5.6108100000000001E-2</v>
+        <v>-5.8484099999999997E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1505,19 +1507,19 @@
         <v>17</v>
       </c>
       <c r="D19" s="16">
-        <v>4.15E-4</v>
+        <v>0.6368779</v>
       </c>
       <c r="E19" s="16">
-        <v>2.4254299999999999E-2</v>
+        <v>0.66061930000000002</v>
       </c>
       <c r="F19" s="16">
-        <v>3.8323500000000003E-2</v>
+        <v>7.1088600000000002E-2</v>
       </c>
       <c r="G19" s="16">
-        <v>8.5877999999999996E-2</v>
+        <v>0.15365680000000001</v>
       </c>
       <c r="H19" s="16">
-        <v>-3.6294899999999998E-2</v>
+        <v>-3.7831900000000002E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1529,19 +1531,19 @@
         <v>18</v>
       </c>
       <c r="D20" s="16">
-        <v>-4.9700000000000002E-5</v>
+        <v>-7.6295500000000002E-2</v>
       </c>
       <c r="E20" s="16">
-        <v>2.4254299999999999E-2</v>
+        <v>0.66061930000000002</v>
       </c>
       <c r="F20" s="16">
-        <v>9.7840399999999994E-2</v>
+        <v>0.18149029999999999</v>
       </c>
       <c r="G20" s="16">
-        <v>0.1489309</v>
+        <v>0.26647389999999999</v>
       </c>
       <c r="H20" s="16">
-        <v>1.55047E-2</v>
+        <v>1.61613E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1553,19 +1555,19 @@
         <v>19</v>
       </c>
       <c r="D21" s="16">
-        <v>4.0969999999999998E-4</v>
+        <v>0.62872170000000005</v>
       </c>
       <c r="E21" s="16">
-        <v>2.4254299999999999E-2</v>
+        <v>0.66061930000000002</v>
       </c>
       <c r="F21" s="16">
-        <v>-5.8476800000000002E-2</v>
+        <v>-0.10847229999999999</v>
       </c>
       <c r="G21" s="16">
-        <v>-9.2534000000000002E-3</v>
+        <v>-1.6556700000000001E-2</v>
       </c>
       <c r="H21" s="16">
-        <v>-0.13457859999999999</v>
+        <v>-0.1402776</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1577,19 +1579,19 @@
         <v>20</v>
       </c>
       <c r="D22" s="16">
-        <v>-1.3558999999999999E-3</v>
+        <v>-2.0807690000000001</v>
       </c>
       <c r="E22" s="16">
-        <v>2.4254299999999999E-2</v>
+        <v>0.66061930000000002</v>
       </c>
       <c r="F22" s="16">
-        <v>6.0818000000000001E-3</v>
+        <v>1.12814E-2</v>
       </c>
       <c r="G22" s="16">
-        <v>7.2883799999999999E-2</v>
+        <v>0.13040689999999999</v>
       </c>
       <c r="H22" s="16">
-        <v>-7.3924400000000001E-2</v>
+        <v>-7.7054899999999996E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1601,19 +1603,19 @@
         <v>21</v>
       </c>
       <c r="D23" s="16">
-        <v>-9.4099999999999997E-5</v>
+        <v>-0.1443816</v>
       </c>
       <c r="E23" s="16">
-        <v>2.4254299999999999E-2</v>
+        <v>0.66061930000000002</v>
       </c>
       <c r="F23" s="16">
-        <v>-5.97484E-2</v>
+        <v>-0.1108311</v>
       </c>
       <c r="G23" s="16">
-        <v>-2.4124199999999998E-2</v>
+        <v>-4.3164099999999997E-2</v>
       </c>
       <c r="H23" s="16">
-        <v>-0.12894900000000001</v>
+        <v>-0.13440959999999999</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1625,19 +1627,19 @@
         <v>11</v>
       </c>
       <c r="D24" s="16">
-        <v>9.794999999999999E-4</v>
+        <v>1.50318</v>
       </c>
       <c r="E24" s="16">
-        <v>2.43565E-2</v>
+        <v>0.66340180000000004</v>
       </c>
       <c r="F24" s="16">
-        <v>1.16755E-2</v>
+        <v>2.1657599999999999E-2</v>
       </c>
       <c r="G24" s="16">
-        <v>7.7606700000000001E-2</v>
+        <v>0.13885729999999999</v>
       </c>
       <c r="H24" s="16">
-        <v>-6.11149E-2</v>
+        <v>-6.3702999999999996E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1649,19 +1651,19 @@
         <v>12</v>
       </c>
       <c r="D25" s="16">
-        <v>3.82E-5</v>
+        <v>5.8567599999999997E-2</v>
       </c>
       <c r="E25" s="16">
-        <v>2.43565E-2</v>
+        <v>0.66340180000000004</v>
       </c>
       <c r="F25" s="16">
-        <v>-9.8417000000000001E-3</v>
+        <v>-1.8256100000000001E-2</v>
       </c>
       <c r="G25" s="16">
-        <v>4.7730799999999997E-2</v>
+        <v>8.5402099999999995E-2</v>
       </c>
       <c r="H25" s="16">
-        <v>-8.1619399999999995E-2</v>
+        <v>-8.5075799999999993E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1673,19 +1675,19 @@
         <v>13</v>
       </c>
       <c r="D26" s="16">
-        <v>-3.3699999999999999E-5</v>
+        <v>-5.1643099999999997E-2</v>
       </c>
       <c r="E26" s="16">
-        <v>2.43565E-2</v>
+        <v>0.66340180000000004</v>
       </c>
       <c r="F26" s="16">
-        <v>6.4137200000000005E-2</v>
+        <v>0.1189722</v>
       </c>
       <c r="G26" s="16">
-        <v>-3.8785E-3</v>
+        <v>-6.9395000000000004E-3</v>
       </c>
       <c r="H26" s="16">
-        <v>-9.4347100000000003E-2</v>
+        <v>-9.8342399999999996E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1697,19 +1699,19 @@
         <v>14</v>
       </c>
       <c r="D27" s="16">
-        <v>6.3210000000000002E-4</v>
+        <v>0.96998180000000001</v>
       </c>
       <c r="E27" s="16">
-        <v>2.4943E-2</v>
+        <v>0.67937650000000005</v>
       </c>
       <c r="F27" s="16">
-        <v>-0.90422069999999999</v>
+        <v>-1.6772959999999999</v>
       </c>
       <c r="G27" s="16">
-        <v>-0.88430830000000005</v>
+        <v>-1.582244</v>
       </c>
       <c r="H27" s="16">
-        <v>-1.0894470000000001</v>
+        <v>-1.1355820000000001</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1721,19 +1723,19 @@
         <v>15</v>
       </c>
       <c r="D28" s="16">
-        <v>1.9400000000000001E-5</v>
+        <v>2.9781599999999998E-2</v>
       </c>
       <c r="E28" s="16">
-        <v>2.43565E-2</v>
+        <v>0.66340180000000004</v>
       </c>
       <c r="F28" s="16">
-        <v>-2.1220699999999999E-2</v>
+        <v>-3.9363599999999999E-2</v>
       </c>
       <c r="G28" s="16">
-        <v>7.80193E-2</v>
+        <v>0.13959569999999999</v>
       </c>
       <c r="H28" s="16">
-        <v>-0.12307709999999999</v>
+        <v>-0.12828899999999999</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1745,19 +1747,19 @@
         <v>16</v>
       </c>
       <c r="D29" s="16">
-        <v>9.68E-4</v>
+        <v>1.48546</v>
       </c>
       <c r="E29" s="16">
-        <v>2.43565E-2</v>
+        <v>0.66340180000000004</v>
       </c>
       <c r="F29" s="16">
-        <v>-4.5923800000000001E-2</v>
+        <v>-8.5186999999999999E-2</v>
       </c>
       <c r="G29" s="16">
-        <v>2.5367399999999998E-2</v>
+        <v>4.5388400000000002E-2</v>
       </c>
       <c r="H29" s="16">
-        <v>-0.1109113</v>
+        <v>-0.115608</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1769,19 +1771,19 @@
         <v>17</v>
       </c>
       <c r="D30" s="16">
-        <v>-2.7099999999999997E-4</v>
+        <v>-0.41582439999999998</v>
       </c>
       <c r="E30" s="16">
-        <v>2.43565E-2</v>
+        <v>0.66340180000000004</v>
       </c>
       <c r="F30" s="16">
-        <v>1.29514E-2</v>
+        <v>2.4024400000000001E-2</v>
       </c>
       <c r="G30" s="16">
-        <v>2.0273099999999999E-2</v>
+        <v>3.6273600000000003E-2</v>
       </c>
       <c r="H30" s="16">
-        <v>-0.1105845</v>
+        <v>-0.11526740000000001</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1793,19 +1795,19 @@
         <v>18</v>
       </c>
       <c r="D31" s="16">
-        <v>-1.4449999999999999E-4</v>
+        <v>-0.22169659999999999</v>
       </c>
       <c r="E31" s="16">
-        <v>2.43565E-2</v>
+        <v>0.66340180000000004</v>
       </c>
       <c r="F31" s="16">
-        <v>7.4076100000000006E-2</v>
+        <v>0.13740849999999999</v>
       </c>
       <c r="G31" s="16">
-        <v>0.16451260000000001</v>
+        <v>0.29435339999999999</v>
       </c>
       <c r="H31" s="16">
-        <v>-3.2717999999999997E-2</v>
+        <v>-3.4103500000000002E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1817,19 +1819,19 @@
         <v>19</v>
       </c>
       <c r="D32" s="16">
-        <v>6.1320000000000005E-4</v>
+        <v>0.94095680000000004</v>
       </c>
       <c r="E32" s="16">
-        <v>2.43565E-2</v>
+        <v>0.66340180000000004</v>
       </c>
       <c r="F32" s="16">
-        <v>-2.5809700000000001E-2</v>
+        <v>-4.7876000000000002E-2</v>
       </c>
       <c r="G32" s="16">
-        <v>6.4830899999999997E-2</v>
+        <v>0.1159983</v>
       </c>
       <c r="H32" s="16">
-        <v>-0.1147489</v>
+        <v>-0.1196082</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1841,19 +1843,19 @@
         <v>22</v>
       </c>
       <c r="D33" s="16">
-        <v>2.03E-4</v>
+        <v>0.3115386</v>
       </c>
       <c r="E33" s="16">
-        <v>2.43565E-2</v>
+        <v>0.66340180000000004</v>
       </c>
       <c r="F33" s="16">
-        <v>3.4836600000000002E-2</v>
+        <v>6.4620700000000003E-2</v>
       </c>
       <c r="G33" s="16">
-        <v>9.3544799999999997E-2</v>
+        <v>0.16737460000000001</v>
       </c>
       <c r="H33" s="16">
-        <v>-3.8645699999999998E-2</v>
+        <v>-4.0282199999999997E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1865,19 +1867,19 @@
         <v>21</v>
       </c>
       <c r="D34" s="16">
-        <v>9.87E-5</v>
+        <v>0.1514228</v>
       </c>
       <c r="E34" s="16">
-        <v>2.43565E-2</v>
+        <v>0.66340180000000004</v>
       </c>
       <c r="F34" s="16">
-        <v>-1.1732899999999999E-2</v>
+        <v>-2.1764100000000002E-2</v>
       </c>
       <c r="G34" s="16">
-        <v>5.2056199999999997E-2</v>
+        <v>9.3141299999999996E-2</v>
       </c>
       <c r="H34" s="16">
-        <v>-0.1083629</v>
+        <v>-0.1129517</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1889,19 +1891,19 @@
         <v>11</v>
       </c>
       <c r="D35" s="16">
-        <v>-5.8200000000000002E-6</v>
+        <v>-8.9268000000000004E-3</v>
       </c>
       <c r="E35" s="16">
-        <v>3.6716100000000002E-2</v>
+        <v>1.0000420000000001</v>
       </c>
       <c r="F35" s="16">
-        <v>-7.78171E-2</v>
+        <v>-0.1443479</v>
       </c>
       <c r="G35" s="16">
-        <v>-6.6258999999999998E-2</v>
+        <v>-0.1185536</v>
       </c>
       <c r="H35" s="16">
-        <v>-0.1267344</v>
+        <v>-0.1321013</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1913,19 +1915,19 @@
         <v>12</v>
       </c>
       <c r="D36" s="16">
-        <v>-1.8E-5</v>
+        <v>-2.7550399999999999E-2</v>
       </c>
       <c r="E36" s="16">
-        <v>3.6716100000000002E-2</v>
+        <v>1.0000420000000001</v>
       </c>
       <c r="F36" s="16">
-        <v>-1.5685299999999999E-2</v>
+        <v>-2.9095699999999999E-2</v>
       </c>
       <c r="G36" s="16">
-        <v>2.8641099999999999E-2</v>
+        <v>5.1246E-2</v>
       </c>
       <c r="H36" s="16">
-        <v>-1.9189399999999999E-2</v>
+        <v>-2.0001999999999999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1937,19 +1939,19 @@
         <v>13</v>
       </c>
       <c r="D37" s="16">
-        <v>3.2200000000000001E-6</v>
+        <v>4.9410000000000001E-3</v>
       </c>
       <c r="E37" s="16">
-        <v>3.6716100000000002E-2</v>
+        <v>1.0000420000000001</v>
       </c>
       <c r="F37" s="16">
-        <v>2.8829299999999999E-2</v>
+        <v>5.3477299999999998E-2</v>
       </c>
       <c r="G37" s="16">
-        <v>4.8506399999999998E-2</v>
+        <v>8.67898E-2</v>
       </c>
       <c r="H37" s="16">
-        <v>-6.6242000000000002E-3</v>
+        <v>-6.9046999999999997E-3</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1961,19 +1963,19 @@
         <v>14</v>
       </c>
       <c r="D38" s="16">
-        <v>1.2210000000000001E-4</v>
+        <v>0.18733030000000001</v>
       </c>
       <c r="E38" s="16">
-        <v>3.6716100000000002E-2</v>
+        <v>1.0000420000000001</v>
       </c>
       <c r="F38" s="16">
-        <v>7.3562299999999997E-2</v>
+        <v>0.1364553</v>
       </c>
       <c r="G38" s="16">
-        <v>6.5356499999999998E-2</v>
+        <v>0.11693870000000001</v>
       </c>
       <c r="H38" s="16">
-        <v>6.2738999999999998E-3</v>
+        <v>6.5395999999999996E-3</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1985,19 +1987,19 @@
         <v>15</v>
       </c>
       <c r="D39" s="16">
-        <v>8.2400000000000007E-6</v>
+        <v>1.26491E-2</v>
       </c>
       <c r="E39" s="16">
-        <v>3.6716100000000002E-2</v>
+        <v>1.0000420000000001</v>
       </c>
       <c r="F39" s="16">
-        <v>7.3436799999999997E-2</v>
+        <v>0.1362226</v>
       </c>
       <c r="G39" s="16">
-        <v>9.8779599999999995E-2</v>
+        <v>0.17674100000000001</v>
       </c>
       <c r="H39" s="16">
-        <v>8.0386999999999993E-3</v>
+        <v>8.3791999999999998E-3</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2009,19 +2011,19 @@
         <v>16</v>
       </c>
       <c r="D40" s="16">
-        <v>3.1869999999999999E-4</v>
+        <v>0.48906729999999998</v>
       </c>
       <c r="E40" s="16">
-        <v>3.6716100000000002E-2</v>
+        <v>1.0000420000000001</v>
       </c>
       <c r="F40" s="16">
-        <v>-3.6278600000000001E-2</v>
+        <v>-6.7295499999999994E-2</v>
       </c>
       <c r="G40" s="16">
-        <v>1.06199E-2</v>
+        <v>1.90016E-2</v>
       </c>
       <c r="H40" s="16">
-        <v>-6.1048199999999997E-2</v>
+        <v>-6.3633400000000007E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2033,19 +2035,19 @@
         <v>17</v>
       </c>
       <c r="D41" s="16">
-        <v>-1.4190000000000001E-4</v>
+        <v>-0.21769549999999999</v>
       </c>
       <c r="E41" s="16">
-        <v>3.6716100000000002E-2</v>
+        <v>1.0000420000000001</v>
       </c>
       <c r="F41" s="16">
-        <v>5.4923100000000002E-2</v>
+        <v>0.10188029999999999</v>
       </c>
       <c r="G41" s="16">
-        <v>8.5320400000000005E-2</v>
+        <v>0.15265899999999999</v>
       </c>
       <c r="H41" s="16">
-        <v>2.5579999999999998E-4</v>
+        <v>2.6659999999999998E-4</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2057,19 +2059,19 @@
         <v>18</v>
       </c>
       <c r="D42" s="16">
-        <v>-3.8529999999999999E-4</v>
+        <v>-0.59126920000000005</v>
       </c>
       <c r="E42" s="16">
-        <v>3.6716100000000002E-2</v>
+        <v>1.0000420000000001</v>
       </c>
       <c r="F42" s="16">
-        <v>0.2007775</v>
+        <v>0.37243500000000002</v>
       </c>
       <c r="G42" s="16">
-        <v>0.16279250000000001</v>
+        <v>0.29127570000000003</v>
       </c>
       <c r="H42" s="16">
-        <v>7.9520499999999994E-2</v>
+        <v>8.2888000000000003E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2081,19 +2083,19 @@
         <v>19</v>
       </c>
       <c r="D43" s="16">
-        <v>4.7550000000000001E-4</v>
+        <v>0.72975579999999995</v>
       </c>
       <c r="E43" s="16">
-        <v>3.6716100000000002E-2</v>
+        <v>1.0000420000000001</v>
       </c>
       <c r="F43" s="16">
-        <v>-1.4560999999999999E-2</v>
+        <v>-2.7010099999999999E-2</v>
       </c>
       <c r="G43" s="16">
-        <v>-7.3244E-3</v>
+        <v>-1.31051E-2</v>
       </c>
       <c r="H43" s="16">
-        <v>-0.1047486</v>
+        <v>-0.1091844</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2105,19 +2107,19 @@
         <v>20</v>
       </c>
       <c r="D44" s="16">
-        <v>7.2139999999999997E-4</v>
+        <v>1.1070610000000001</v>
       </c>
       <c r="E44" s="16">
-        <v>3.6716100000000002E-2</v>
+        <v>1.0000420000000001</v>
       </c>
       <c r="F44" s="16">
-        <v>-3.37451E-2</v>
+        <v>-6.2595999999999999E-2</v>
       </c>
       <c r="G44" s="16">
-        <v>-1.0363900000000001E-2</v>
+        <v>-1.8543500000000001E-2</v>
       </c>
       <c r="H44" s="16">
-        <v>-9.5588699999999999E-2</v>
+        <v>-9.9636600000000006E-2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2129,19 +2131,19 @@
         <v>21</v>
       </c>
       <c r="D45" s="16">
-        <v>1.952E-4</v>
+        <v>0.29955179999999998</v>
       </c>
       <c r="E45" s="16">
-        <v>3.6716100000000002E-2</v>
+        <v>1.0000420000000001</v>
       </c>
       <c r="F45" s="16">
-        <v>-8.9408699999999994E-2</v>
+        <v>-0.16584989999999999</v>
       </c>
       <c r="G45" s="16">
-        <v>-2.5785499999999999E-2</v>
+        <v>-4.6136499999999997E-2</v>
       </c>
       <c r="H45" s="16">
-        <v>-0.1177675</v>
+        <v>-0.12275460000000001</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2153,19 +2155,19 @@
         <v>11</v>
       </c>
       <c r="D46" s="16">
-        <v>2.3900000000000001E-4</v>
+        <v>0.36684450000000002</v>
       </c>
       <c r="E46" s="16">
-        <v>2.36613E-2</v>
+        <v>0.64446680000000001</v>
       </c>
       <c r="F46" s="16">
-        <v>1.93615E-2</v>
+        <v>3.5914799999999997E-2</v>
       </c>
       <c r="G46" s="16">
-        <v>9.3439999999999995E-2</v>
+        <v>0.167187</v>
       </c>
       <c r="H46" s="16">
-        <v>-3.2766099999999999E-2</v>
+        <v>-3.4153599999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2177,19 +2179,19 @@
         <v>12</v>
       </c>
       <c r="D47" s="16">
-        <v>-2.9699999999999999E-6</v>
+        <v>-4.5532999999999997E-3</v>
       </c>
       <c r="E47" s="16">
-        <v>2.36613E-2</v>
+        <v>0.64446680000000001</v>
       </c>
       <c r="F47" s="16">
-        <v>2.93987E-2</v>
+        <v>5.4533600000000002E-2</v>
       </c>
       <c r="G47" s="16">
-        <v>8.42918E-2</v>
+        <v>0.1508186</v>
       </c>
       <c r="H47" s="16">
-        <v>-1.5462E-2</v>
+        <v>-1.6116800000000001E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2201,19 +2203,19 @@
         <v>13</v>
       </c>
       <c r="D48" s="16">
-        <v>5.27E-5</v>
+        <v>8.0877599999999994E-2</v>
       </c>
       <c r="E48" s="16">
-        <v>2.36613E-2</v>
+        <v>0.64446680000000001</v>
       </c>
       <c r="F48" s="16">
-        <v>0.13641690000000001</v>
+        <v>0.2530483</v>
       </c>
       <c r="G48" s="16">
-        <v>0.19759669999999999</v>
+        <v>0.353549</v>
       </c>
       <c r="H48" s="16">
-        <v>9.4662200000000002E-2</v>
+        <v>9.8670800000000003E-2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2225,19 +2227,19 @@
         <v>14</v>
       </c>
       <c r="D49" s="16">
-        <v>5.0000000000000002E-5</v>
+        <v>7.6718999999999996E-2</v>
       </c>
       <c r="E49" s="16">
-        <v>2.36613E-2</v>
+        <v>0.64446680000000001</v>
       </c>
       <c r="F49" s="16">
-        <v>0.30286730000000001</v>
+        <v>0.56180779999999997</v>
       </c>
       <c r="G49" s="16">
-        <v>0.34729559999999998</v>
+        <v>0.62139699999999998</v>
       </c>
       <c r="H49" s="16">
-        <v>9.9290000000000003E-2</v>
+        <v>0.1034947</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2249,19 +2251,19 @@
         <v>15</v>
       </c>
       <c r="D50" s="16">
-        <v>5.2299999999999999E-6</v>
+        <v>8.0222000000000002E-3</v>
       </c>
       <c r="E50" s="16">
-        <v>2.36613E-2</v>
+        <v>0.64446680000000001</v>
       </c>
       <c r="F50" s="16">
-        <v>7.6569600000000002E-2</v>
+        <v>0.14203370000000001</v>
       </c>
       <c r="G50" s="16">
-        <v>0.17207339999999999</v>
+        <v>0.30788149999999997</v>
       </c>
       <c r="H50" s="16">
-        <v>3.0097800000000001E-2</v>
+        <v>3.1372299999999999E-2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2273,19 +2275,19 @@
         <v>16</v>
       </c>
       <c r="D51" s="16">
-        <v>2.7320000000000003E-4</v>
+        <v>0.41922300000000001</v>
       </c>
       <c r="E51" s="16">
-        <v>2.36613E-2</v>
+        <v>0.64446680000000001</v>
       </c>
       <c r="F51" s="16">
-        <v>5.5462699999999997E-2</v>
+        <v>0.10288129999999999</v>
       </c>
       <c r="G51" s="16">
-        <v>0.1179164</v>
+        <v>0.21098130000000001</v>
       </c>
       <c r="H51" s="16">
-        <v>8.6841999999999996E-3</v>
+        <v>9.0519999999999993E-3</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2297,19 +2299,19 @@
         <v>17</v>
       </c>
       <c r="D52" s="16">
-        <v>1.076E-4</v>
+        <v>0.16505639999999999</v>
       </c>
       <c r="E52" s="16">
-        <v>2.36613E-2</v>
+        <v>0.64446680000000001</v>
       </c>
       <c r="F52" s="16">
-        <v>8.1505800000000003E-2</v>
+        <v>0.1511902</v>
       </c>
       <c r="G52" s="16">
-        <v>0.14756430000000001</v>
+        <v>0.26402870000000001</v>
       </c>
       <c r="H52" s="16">
-        <v>3.6298700000000003E-2</v>
+        <v>3.7835800000000003E-2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2321,19 +2323,19 @@
         <v>18</v>
       </c>
       <c r="D53" s="16">
-        <v>2.6299999999999999E-5</v>
+        <v>4.04085E-2</v>
       </c>
       <c r="E53" s="16">
-        <v>2.36613E-2</v>
+        <v>0.64446680000000001</v>
       </c>
       <c r="F53" s="16">
-        <v>0.18806539999999999</v>
+        <v>0.34885440000000001</v>
       </c>
       <c r="G53" s="16">
-        <v>0.2510328</v>
+        <v>0.44915919999999998</v>
       </c>
       <c r="H53" s="16">
-        <v>0.14687729999999999</v>
+        <v>0.15309710000000001</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2345,19 +2347,19 @@
         <v>19</v>
       </c>
       <c r="D54" s="16">
-        <v>2.2580000000000001E-4</v>
+        <v>0.34657369999999998</v>
       </c>
       <c r="E54" s="16">
-        <v>2.36613E-2</v>
+        <v>0.64446680000000001</v>
       </c>
       <c r="F54" s="16">
-        <v>-2.6233099999999999E-2</v>
+        <v>-4.86614E-2</v>
       </c>
       <c r="G54" s="16">
-        <v>5.8230299999999999E-2</v>
+        <v>0.1041883</v>
       </c>
       <c r="H54" s="16">
-        <v>-6.6227900000000006E-2</v>
+        <v>-6.9032499999999997E-2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2369,19 +2371,19 @@
         <v>20</v>
       </c>
       <c r="D55" s="16">
-        <v>-6.2220000000000005E-4</v>
+        <v>-0.95482929999999999</v>
       </c>
       <c r="E55" s="16">
-        <v>2.36613E-2</v>
+        <v>0.64446680000000001</v>
       </c>
       <c r="F55" s="16">
-        <v>-8.9519199999999993E-2</v>
+        <v>-0.1660548</v>
       </c>
       <c r="G55" s="16">
-        <v>4.2394099999999997E-2</v>
+        <v>7.5853400000000001E-2</v>
       </c>
       <c r="H55" s="16">
-        <v>-0.1238385</v>
+        <v>-0.12908259999999999</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2393,19 +2395,19 @@
         <v>21</v>
       </c>
       <c r="D56" s="16">
-        <v>9.87E-5</v>
+        <v>0.15140229999999999</v>
       </c>
       <c r="E56" s="16">
-        <v>2.36613E-2</v>
+        <v>0.64446680000000001</v>
       </c>
       <c r="F56" s="16">
-        <v>-8.4235500000000005E-2</v>
+        <v>-0.1562538</v>
       </c>
       <c r="G56" s="16">
-        <v>4.2839999999999996E-3</v>
+        <v>7.6651999999999996E-3</v>
       </c>
       <c r="H56" s="16">
-        <v>-0.1227133</v>
+        <v>-0.12790989999999999</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2417,19 +2419,19 @@
         <v>11</v>
       </c>
       <c r="D57" s="16">
-        <v>1.1959999999999999E-4</v>
+        <v>0.18352869999999999</v>
       </c>
       <c r="E57" s="16">
-        <v>3.5215799999999998E-2</v>
+        <v>0.95917949999999996</v>
       </c>
       <c r="F57" s="16">
-        <v>-7.1964000000000004E-3</v>
+        <v>-1.3349099999999999E-2</v>
       </c>
       <c r="G57" s="16">
-        <v>-3.4667499999999997E-2</v>
+        <v>-6.2028699999999999E-2</v>
       </c>
       <c r="H57" s="16">
-        <v>-0.13162750000000001</v>
+        <v>-0.1372015</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2441,19 +2443,19 @@
         <v>12</v>
       </c>
       <c r="D58" s="16">
-        <v>-3.4599999999999999E-6</v>
+        <v>-5.3143000000000001E-3</v>
       </c>
       <c r="E58" s="16">
-        <v>3.5215799999999998E-2</v>
+        <v>0.95917949999999996</v>
       </c>
       <c r="F58" s="16">
-        <v>0.14301990000000001</v>
+        <v>0.26529659999999999</v>
       </c>
       <c r="G58" s="16">
-        <v>0.31882880000000002</v>
+        <v>0.57046289999999999</v>
       </c>
       <c r="H58" s="16">
-        <v>4.5220400000000001E-2</v>
+        <v>4.7135299999999998E-2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2465,19 +2467,19 @@
         <v>13</v>
       </c>
       <c r="D59" s="16">
-        <v>-1.2799999999999999E-5</v>
+        <v>-1.9674899999999999E-2</v>
       </c>
       <c r="E59" s="16">
-        <v>3.5215799999999998E-2</v>
+        <v>0.95917949999999996</v>
       </c>
       <c r="F59" s="16">
-        <v>0.11358269999999999</v>
+        <v>0.21069180000000001</v>
       </c>
       <c r="G59" s="16">
-        <v>7.7998600000000001E-2</v>
+        <v>0.1395586</v>
       </c>
       <c r="H59" s="16">
-        <v>-4.3039899999999999E-2</v>
+        <v>-4.48625E-2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2489,19 +2491,19 @@
         <v>14</v>
       </c>
       <c r="D60" s="16">
-        <v>-2.3300000000000001E-5</v>
+        <v>-3.5768399999999999E-2</v>
       </c>
       <c r="E60" s="16">
-        <v>3.5215799999999998E-2</v>
+        <v>0.95917949999999996</v>
       </c>
       <c r="F60" s="16">
-        <v>-6.7650100000000005E-2</v>
+        <v>-0.1254884</v>
       </c>
       <c r="G60" s="16">
-        <v>-7.2880600000000004E-2</v>
+        <v>-0.1304013</v>
       </c>
       <c r="H60" s="16">
-        <v>-0.36137560000000002</v>
+        <v>-0.37667879999999998</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2513,19 +2515,19 @@
         <v>15</v>
       </c>
       <c r="D61" s="16">
-        <v>6.2299999999999996E-6</v>
+        <v>9.5597000000000008E-3</v>
       </c>
       <c r="E61" s="16">
-        <v>3.5215799999999998E-2</v>
+        <v>0.95917949999999996</v>
       </c>
       <c r="F61" s="16">
-        <v>7.7929499999999999E-2</v>
+        <v>0.1445564</v>
       </c>
       <c r="G61" s="16">
-        <v>0.1584111</v>
+        <v>0.28343629999999997</v>
       </c>
       <c r="H61" s="16">
-        <v>-9.1860700000000003E-2</v>
+        <v>-9.5750699999999994E-2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2537,19 +2539,19 @@
         <v>16</v>
       </c>
       <c r="D62" s="16">
-        <v>2.109E-4</v>
+        <v>0.32361390000000001</v>
       </c>
       <c r="E62" s="16">
-        <v>3.5215799999999998E-2</v>
+        <v>0.95917949999999996</v>
       </c>
       <c r="F62" s="16">
-        <v>0.1006194</v>
+        <v>0.18664539999999999</v>
       </c>
       <c r="G62" s="16">
-        <v>9.6584100000000006E-2</v>
+        <v>0.17281260000000001</v>
       </c>
       <c r="H62" s="16">
-        <v>-5.1632900000000002E-2</v>
+        <v>-5.3819400000000003E-2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2561,19 +2563,19 @@
         <v>17</v>
       </c>
       <c r="D63" s="16">
-        <v>5.91E-5</v>
+        <v>9.0743799999999999E-2</v>
       </c>
       <c r="E63" s="16">
-        <v>3.5215799999999998E-2</v>
+        <v>0.95917949999999996</v>
       </c>
       <c r="F63" s="16">
-        <v>7.5905100000000003E-2</v>
+        <v>0.14080119999999999</v>
       </c>
       <c r="G63" s="16">
-        <v>5.3845799999999999E-2</v>
+        <v>9.6343399999999996E-2</v>
       </c>
       <c r="H63" s="16">
-        <v>-9.1663800000000004E-2</v>
+        <v>-9.5545500000000005E-2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2585,19 +2587,19 @@
         <v>18</v>
       </c>
       <c r="D64" s="16">
-        <v>-8.32E-6</v>
+        <v>-1.27724E-2</v>
       </c>
       <c r="E64" s="16">
-        <v>3.5215799999999998E-2</v>
+        <v>0.95917949999999996</v>
       </c>
       <c r="F64" s="16">
-        <v>0.12646969999999999</v>
+        <v>0.23459669999999999</v>
       </c>
       <c r="G64" s="16">
-        <v>0.19836899999999999</v>
+        <v>0.35493079999999999</v>
       </c>
       <c r="H64" s="16">
-        <v>-2.4645899999999998E-2</v>
+        <v>-2.56896E-2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2609,19 +2611,19 @@
         <v>19</v>
       </c>
       <c r="D65" s="16">
-        <v>7.3800000000000005E-5</v>
+        <v>0.1132425</v>
       </c>
       <c r="E65" s="16">
-        <v>3.5215799999999998E-2</v>
+        <v>0.95917949999999996</v>
       </c>
       <c r="F65" s="16">
-        <v>-8.1892499999999993E-2</v>
+        <v>-0.1519075</v>
       </c>
       <c r="G65" s="16">
-        <v>-5.5286399999999999E-2</v>
+        <v>-9.8920900000000006E-2</v>
       </c>
       <c r="H65" s="16">
-        <v>-0.2014782</v>
+        <v>-0.21001020000000001</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2633,19 +2635,19 @@
         <v>20</v>
       </c>
       <c r="D66" s="16">
-        <v>2.219E-4</v>
+        <v>0.34049649999999998</v>
       </c>
       <c r="E66" s="16">
-        <v>3.5215799999999998E-2</v>
+        <v>0.95917949999999996</v>
       </c>
       <c r="F66" s="16">
-        <v>-7.4719400000000005E-2</v>
+        <v>-0.1386018</v>
       </c>
       <c r="G66" s="16">
-        <v>-7.3222499999999996E-2</v>
+        <v>-0.13101299999999999</v>
       </c>
       <c r="H66" s="16">
-        <v>-0.21160039999999999</v>
+        <v>-0.22056100000000001</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2657,19 +2659,19 @@
         <v>21</v>
       </c>
       <c r="D67" s="16">
-        <v>5.66E-5</v>
+        <v>8.6920999999999998E-2</v>
       </c>
       <c r="E67" s="16">
-        <v>3.5215799999999998E-2</v>
+        <v>0.95917949999999996</v>
       </c>
       <c r="F67" s="16">
-        <v>-6.3250000000000003E-4</v>
+        <v>-1.1733E-3</v>
       </c>
       <c r="G67" s="16">
-        <v>3.6708499999999998E-2</v>
+        <v>6.56804E-2</v>
       </c>
       <c r="H67" s="16">
-        <v>-0.1141933</v>
+        <v>-0.119029</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2681,19 +2683,19 @@
         <v>11</v>
       </c>
       <c r="D68" s="16">
-        <v>6.6E-4</v>
+        <v>1.012796</v>
       </c>
       <c r="E68" s="16">
-        <v>2.1010000000000001E-2</v>
+        <v>0.57225170000000003</v>
       </c>
       <c r="F68" s="16">
-        <v>2.9290799999999999E-2</v>
+        <v>5.4333399999999997E-2</v>
       </c>
       <c r="G68" s="16">
-        <v>6.6898399999999997E-2</v>
+        <v>0.1196977</v>
       </c>
       <c r="H68" s="16">
-        <v>-9.6689300000000006E-2</v>
+        <v>-0.10078380000000001</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2705,19 +2707,19 @@
         <v>12</v>
       </c>
       <c r="D69" s="16">
-        <v>-5.4099999999999999E-6</v>
+        <v>-8.3021999999999992E-3</v>
       </c>
       <c r="E69" s="16">
-        <v>2.1010000000000001E-2</v>
+        <v>0.57225170000000003</v>
       </c>
       <c r="F69" s="16">
-        <v>7.0413799999999999E-2</v>
+        <v>0.13061490000000001</v>
       </c>
       <c r="G69" s="16">
-        <v>8.2812800000000006E-2</v>
+        <v>0.14817240000000001</v>
       </c>
       <c r="H69" s="16">
-        <v>-9.6911800000000006E-2</v>
+        <v>-0.1010157</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2729,19 +2731,19 @@
         <v>13</v>
       </c>
       <c r="D70" s="16">
-        <v>7.6500000000000003E-5</v>
+        <v>0.1173337</v>
       </c>
       <c r="E70" s="16">
-        <v>2.1010000000000001E-2</v>
+        <v>0.57225170000000003</v>
       </c>
       <c r="F70" s="16">
-        <v>4.3414899999999999E-2</v>
+        <v>8.0533099999999996E-2</v>
       </c>
       <c r="G70" s="16">
-        <v>7.1975999999999998E-2</v>
+        <v>0.1287827</v>
       </c>
       <c r="H70" s="16">
-        <v>-7.5531100000000004E-2</v>
+        <v>-7.87297E-2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2753,19 +2755,19 @@
         <v>14</v>
       </c>
       <c r="D71" s="16">
-        <v>2.7070000000000002E-4</v>
+        <v>0.41542119999999999</v>
       </c>
       <c r="E71" s="16">
-        <v>2.1010000000000001E-2</v>
+        <v>0.57225170000000003</v>
       </c>
       <c r="F71" s="16">
-        <v>-0.23043179999999999</v>
+        <v>-0.4274425</v>
       </c>
       <c r="G71" s="16">
-        <v>-0.21957389999999999</v>
+        <v>-0.39287149999999998</v>
       </c>
       <c r="H71" s="16">
-        <v>-0.32775579999999999</v>
+        <v>-0.34163529999999998</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2777,19 +2779,19 @@
         <v>15</v>
       </c>
       <c r="D72" s="16">
-        <v>1.08E-5</v>
+        <v>1.6623700000000002E-2</v>
       </c>
       <c r="E72" s="16">
-        <v>2.1010000000000001E-2</v>
+        <v>0.57225170000000003</v>
       </c>
       <c r="F72" s="16">
-        <v>1.9783000000000001E-3</v>
+        <v>3.6697000000000001E-3</v>
       </c>
       <c r="G72" s="16">
-        <v>3.3747699999999999E-2</v>
+        <v>6.0382900000000003E-2</v>
       </c>
       <c r="H72" s="16">
-        <v>-0.1165466</v>
+        <v>-0.12148200000000001</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2801,19 +2803,19 @@
         <v>16</v>
       </c>
       <c r="D73" s="16">
-        <v>4.4900000000000002E-4</v>
+        <v>0.68898280000000001</v>
       </c>
       <c r="E73" s="16">
-        <v>2.1010000000000001E-2</v>
+        <v>0.57225170000000003</v>
       </c>
       <c r="F73" s="16">
-        <v>2.3253800000000002E-2</v>
+        <v>4.3135E-2</v>
       </c>
       <c r="G73" s="16">
-        <v>6.9519300000000006E-2</v>
+        <v>0.1243871</v>
       </c>
       <c r="H73" s="16">
-        <v>-9.8576300000000006E-2</v>
+        <v>-0.1027507</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2825,19 +2827,19 @@
         <v>17</v>
       </c>
       <c r="D74" s="16">
-        <v>4.2900000000000002E-4</v>
+        <v>0.6582711</v>
       </c>
       <c r="E74" s="16">
-        <v>2.1010000000000001E-2</v>
+        <v>0.57225170000000003</v>
       </c>
       <c r="F74" s="16">
-        <v>4.5961599999999998E-2</v>
+        <v>8.5256999999999999E-2</v>
       </c>
       <c r="G74" s="16">
-        <v>0.1012048</v>
+        <v>0.1810803</v>
       </c>
       <c r="H74" s="16">
-        <v>-7.5840699999999997E-2</v>
+        <v>-7.9052300000000006E-2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2849,19 +2851,19 @@
         <v>18</v>
       </c>
       <c r="D75" s="16">
-        <v>6.2399999999999999E-5</v>
+        <v>9.5713000000000006E-2</v>
       </c>
       <c r="E75" s="16">
-        <v>2.1010000000000001E-2</v>
+        <v>0.57225170000000003</v>
       </c>
       <c r="F75" s="16">
-        <v>-8.7976200000000004E-2</v>
+        <v>-0.16319259999999999</v>
       </c>
       <c r="G75" s="16">
-        <v>-1.7663000000000002E-2</v>
+        <v>-3.16035E-2</v>
       </c>
       <c r="H75" s="16">
-        <v>-0.1856148</v>
+        <v>-0.19347500000000001</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2873,19 +2875,19 @@
         <v>19</v>
       </c>
       <c r="D76" s="16">
-        <v>3.6999999999999999E-4</v>
+        <v>0.56773580000000001</v>
       </c>
       <c r="E76" s="16">
-        <v>2.1010000000000001E-2</v>
+        <v>0.57225170000000003</v>
       </c>
       <c r="F76" s="16">
-        <v>-1.7853399999999998E-2</v>
+        <v>-3.3117399999999998E-2</v>
       </c>
       <c r="G76" s="16">
-        <v>4.9067800000000002E-2</v>
+        <v>8.7794300000000006E-2</v>
       </c>
       <c r="H76" s="16">
-        <v>-0.12521640000000001</v>
+        <v>-0.13051889999999999</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2897,19 +2899,19 @@
         <v>20</v>
       </c>
       <c r="D77" s="16">
-        <v>-1.2321000000000001E-3</v>
+        <v>-1.8907320000000001</v>
       </c>
       <c r="E77" s="16">
-        <v>2.1010000000000001E-2</v>
+        <v>0.57225170000000003</v>
       </c>
       <c r="F77" s="16">
-        <v>-6.0384000000000002E-3</v>
+        <v>-1.12011E-2</v>
       </c>
       <c r="G77" s="16">
-        <v>5.2426800000000003E-2</v>
+        <v>9.3804499999999999E-2</v>
       </c>
       <c r="H77" s="16">
-        <v>-0.1164501</v>
+        <v>-0.1213814</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2921,19 +2923,19 @@
         <v>21</v>
       </c>
       <c r="D78" s="16">
-        <v>1.7499999999999998E-5</v>
+        <v>2.6845999999999998E-2</v>
       </c>
       <c r="E78" s="16">
-        <v>2.1010000000000001E-2</v>
+        <v>0.57225170000000003</v>
       </c>
       <c r="F78" s="16">
-        <v>-2.9716599999999999E-2</v>
+        <v>-5.5123199999999997E-2</v>
       </c>
       <c r="G78" s="16">
-        <v>1.27297E-2</v>
+        <v>2.2776500000000002E-2</v>
       </c>
       <c r="H78" s="16">
-        <v>-0.14340079999999999</v>
+        <v>-0.14947340000000001</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2945,19 +2947,19 @@
         <v>11</v>
       </c>
       <c r="D79" s="16">
-        <v>1.0849999999999999E-4</v>
+        <v>0.1664725</v>
       </c>
       <c r="E79" s="16">
-        <v>-1.5234999999999999E-3</v>
+        <v>-4.1495900000000002E-2</v>
       </c>
       <c r="F79" s="16">
-        <v>-4.6204799999999997E-2</v>
+        <v>-8.5708300000000001E-2</v>
       </c>
       <c r="G79" s="16">
-        <v>3.9690900000000001E-2</v>
+        <v>7.1016800000000005E-2</v>
       </c>
       <c r="H79" s="16">
-        <v>-7.2933499999999998E-2</v>
+        <v>-7.6022000000000006E-2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2969,19 +2971,19 @@
         <v>12</v>
       </c>
       <c r="D80" s="16">
-        <v>4.2400000000000001E-6</v>
+        <v>6.5139000000000004E-3</v>
       </c>
       <c r="E80" s="16">
-        <v>-1.5234999999999999E-3</v>
+        <v>-4.1495900000000002E-2</v>
       </c>
       <c r="F80" s="16">
-        <v>-4.4039000000000002E-2</v>
+        <v>-8.1690799999999994E-2</v>
       </c>
       <c r="G80" s="16">
-        <v>6.6011200000000006E-2</v>
+        <v>0.1181102</v>
       </c>
       <c r="H80" s="16">
-        <v>-0.1011941</v>
+        <v>-0.1054794</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2993,19 +2995,19 @@
         <v>13</v>
       </c>
       <c r="D81" s="16">
-        <v>4.5500000000000001E-5</v>
+        <v>6.98574E-2</v>
       </c>
       <c r="E81" s="16">
-        <v>-1.5234999999999999E-3</v>
+        <v>-4.1495900000000002E-2</v>
       </c>
       <c r="F81" s="16">
-        <v>-5.1256599999999999E-2</v>
+        <v>-9.50791E-2</v>
       </c>
       <c r="G81" s="16">
-        <v>4.0616199999999998E-2</v>
+        <v>7.2672399999999998E-2</v>
       </c>
       <c r="H81" s="16">
-        <v>-7.6564099999999996E-2</v>
+        <v>-7.98064E-2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3017,19 +3019,19 @@
         <v>14</v>
       </c>
       <c r="D82" s="16">
-        <v>1.19E-5</v>
+        <v>1.8190000000000001E-2</v>
       </c>
       <c r="E82" s="16">
-        <v>-1.5234999999999999E-3</v>
+        <v>-4.1495900000000002E-2</v>
       </c>
       <c r="F82" s="16">
-        <v>-0.23681779999999999</v>
+        <v>-0.43928830000000002</v>
       </c>
       <c r="G82" s="16">
-        <v>-0.14618329999999999</v>
+        <v>-0.26155780000000001</v>
       </c>
       <c r="H82" s="16">
-        <v>-0.30766749999999998</v>
+        <v>-0.32069619999999999</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3041,19 +3043,19 @@
         <v>15</v>
       </c>
       <c r="D83" s="16">
-        <v>2.12E-6</v>
+        <v>3.2463000000000001E-3</v>
       </c>
       <c r="E83" s="16">
-        <v>-1.5234999999999999E-3</v>
+        <v>-4.1495900000000002E-2</v>
       </c>
       <c r="F83" s="16">
-        <v>-2.26039E-2</v>
+        <v>-4.1929300000000003E-2</v>
       </c>
       <c r="G83" s="16">
-        <v>9.5339999999999997E-4</v>
+        <v>1.7059E-3</v>
       </c>
       <c r="H83" s="16">
-        <v>-6.65544E-2</v>
+        <v>-6.9372799999999998E-2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3065,19 +3067,19 @@
         <v>16</v>
       </c>
       <c r="D84" s="16">
-        <v>2.3939999999999999E-4</v>
+        <v>0.3673536</v>
       </c>
       <c r="E84" s="16">
-        <v>-1.5234999999999999E-3</v>
+        <v>-4.1495900000000002E-2</v>
       </c>
       <c r="F84" s="16">
-        <v>-4.8601699999999998E-2</v>
+        <v>-9.0154300000000007E-2</v>
       </c>
       <c r="G84" s="16">
-        <v>4.1056000000000002E-2</v>
+        <v>7.3459300000000005E-2</v>
       </c>
       <c r="H84" s="16">
-        <v>-7.0536799999999997E-2</v>
+        <v>-7.35238E-2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3089,19 +3091,19 @@
         <v>17</v>
       </c>
       <c r="D85" s="16">
-        <v>3.4650000000000002E-4</v>
+        <v>0.5317577</v>
       </c>
       <c r="E85" s="16">
-        <v>-1.5234999999999999E-3</v>
+        <v>-4.1495900000000002E-2</v>
       </c>
       <c r="F85" s="16">
-        <v>-4.3101800000000003E-2</v>
+        <v>-7.9952400000000007E-2</v>
       </c>
       <c r="G85" s="16">
-        <v>5.1783099999999999E-2</v>
+        <v>9.2652700000000004E-2</v>
       </c>
       <c r="H85" s="16">
-        <v>-7.0977399999999996E-2</v>
+        <v>-7.3982999999999993E-2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3113,19 +3115,19 @@
         <v>18</v>
       </c>
       <c r="D86" s="16">
-        <v>2.7399999999999999E-5</v>
+        <v>4.2120199999999997E-2</v>
       </c>
       <c r="E86" s="16">
-        <v>-1.5234999999999999E-3</v>
+        <v>-4.1495900000000002E-2</v>
       </c>
       <c r="F86" s="16">
-        <v>0.19895940000000001</v>
+        <v>0.36906250000000002</v>
       </c>
       <c r="G86" s="16">
-        <v>0.30387320000000001</v>
+        <v>0.54370359999999995</v>
       </c>
       <c r="H86" s="16">
-        <v>0.19815820000000001</v>
+        <v>0.2065496</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3137,19 +3139,19 @@
         <v>19</v>
       </c>
       <c r="D87" s="16">
-        <v>5.4700000000000001E-5</v>
+        <v>8.3966299999999994E-2</v>
       </c>
       <c r="E87" s="16">
-        <v>-1.5234999999999999E-3</v>
+        <v>-4.1495900000000002E-2</v>
       </c>
       <c r="F87" s="16">
-        <v>-0.10016070000000001</v>
+        <v>-0.1857944</v>
       </c>
       <c r="G87" s="16">
-        <v>-1.14085E-2</v>
+        <v>-2.0412599999999999E-2</v>
       </c>
       <c r="H87" s="16">
-        <v>-0.13035260000000001</v>
+        <v>-0.13587260000000001</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3161,19 +3163,19 @@
         <v>20</v>
       </c>
       <c r="D88" s="16">
-        <v>8.0519999999999995E-4</v>
+        <v>1.2357210000000001</v>
       </c>
       <c r="E88" s="16">
-        <v>-1.5234999999999999E-3</v>
+        <v>-4.1495900000000002E-2</v>
       </c>
       <c r="F88" s="16">
-        <v>1.26976E-2</v>
+        <v>2.3553600000000001E-2</v>
       </c>
       <c r="G88" s="16">
-        <v>8.4895100000000001E-2</v>
+        <v>0.15189820000000001</v>
       </c>
       <c r="H88" s="16">
-        <v>-1.5686999999999999E-3</v>
+        <v>-1.6351E-3</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3185,19 +3187,19 @@
         <v>21</v>
       </c>
       <c r="D89" s="16">
-        <v>4.57E-5</v>
+        <v>7.0197999999999997E-2</v>
       </c>
       <c r="E89" s="16">
-        <v>-1.5234999999999999E-3</v>
+        <v>-4.1495900000000002E-2</v>
       </c>
       <c r="F89" s="16">
-        <v>-5.5904000000000002E-2</v>
+        <v>-0.1036999</v>
       </c>
       <c r="G89" s="16">
-        <v>8.0357399999999995E-2</v>
+        <v>0.14377909999999999</v>
       </c>
       <c r="H89" s="16">
-        <v>-7.4642399999999998E-2</v>
+        <v>-7.7803200000000003E-2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3209,19 +3211,19 @@
         <v>11</v>
       </c>
       <c r="D90" s="16">
-        <v>3.5770000000000002E-4</v>
+        <v>0.54887850000000005</v>
       </c>
       <c r="E90" s="16">
-        <v>1.7747099999999998E-2</v>
+        <v>0.48337940000000001</v>
       </c>
       <c r="F90" s="16">
-        <v>-7.8504099999999993E-2</v>
+        <v>-0.14562230000000001</v>
       </c>
       <c r="G90" s="16">
-        <v>1.5193399999999999E-2</v>
+        <v>2.7184699999999999E-2</v>
       </c>
       <c r="H90" s="16">
-        <v>-7.4129600000000004E-2</v>
+        <v>-7.7268799999999999E-2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3233,19 +3235,19 @@
         <v>12</v>
       </c>
       <c r="D91" s="16">
-        <v>4.2100000000000003E-6</v>
+        <v>6.4665E-3</v>
       </c>
       <c r="E91" s="16">
-        <v>1.7747099999999998E-2</v>
+        <v>0.48337940000000001</v>
       </c>
       <c r="F91" s="16">
-        <v>3.08136E-2</v>
+        <v>5.7158100000000003E-2</v>
       </c>
       <c r="G91" s="16">
-        <v>8.1176399999999996E-2</v>
+        <v>0.1452445</v>
       </c>
       <c r="H91" s="16">
-        <v>-4.4666000000000003E-3</v>
+        <v>-4.6557999999999999E-3</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3257,19 +3259,19 @@
         <v>13</v>
       </c>
       <c r="D92" s="16">
-        <v>1.6479999999999999E-4</v>
+        <v>0.25290430000000003</v>
       </c>
       <c r="E92" s="16">
-        <v>1.7747099999999998E-2</v>
+        <v>0.48337940000000001</v>
       </c>
       <c r="F92" s="16">
-        <v>-1.7E-5</v>
+        <v>-3.1600000000000002E-5</v>
       </c>
       <c r="G92" s="16">
-        <v>0.104159</v>
+        <v>0.186366</v>
       </c>
       <c r="H92" s="16">
-        <v>-1.3229100000000001E-2</v>
+        <v>-1.3789300000000001E-2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3281,19 +3283,19 @@
         <v>14</v>
       </c>
       <c r="D93" s="16">
-        <v>1.7990000000000001E-4</v>
+        <v>0.27602120000000002</v>
       </c>
       <c r="E93" s="16">
-        <v>1.7747099999999998E-2</v>
+        <v>0.48337940000000001</v>
       </c>
       <c r="F93" s="16">
-        <v>-0.21765970000000001</v>
+        <v>-0.40375080000000002</v>
       </c>
       <c r="G93" s="16">
-        <v>7.6582600000000001E-2</v>
+        <v>0.13702500000000001</v>
       </c>
       <c r="H93" s="16">
-        <v>-0.1965162</v>
+        <v>-0.20483799999999999</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="16">
-        <v>1.7747099999999998E-2</v>
+        <v>0.48337940000000001</v>
       </c>
       <c r="F94" s="16">
         <v>0</v>
@@ -3329,19 +3331,19 @@
         <v>16</v>
       </c>
       <c r="D95" s="16">
-        <v>4.1409999999999998E-4</v>
+        <v>0.63551159999999995</v>
       </c>
       <c r="E95" s="16">
-        <v>1.7747099999999998E-2</v>
+        <v>0.48337940000000001</v>
       </c>
       <c r="F95" s="16">
-        <v>-4.6352499999999998E-2</v>
+        <v>-8.5982199999999995E-2</v>
       </c>
       <c r="G95" s="16">
-        <v>3.5398100000000002E-2</v>
+        <v>6.3335799999999998E-2</v>
       </c>
       <c r="H95" s="16">
-        <v>-7.2176100000000007E-2</v>
+        <v>-7.5232499999999994E-2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3353,19 +3355,19 @@
         <v>17</v>
       </c>
       <c r="D96" s="16">
-        <v>5.599E-4</v>
+        <v>0.85915300000000006</v>
       </c>
       <c r="E96" s="16">
-        <v>1.7747099999999998E-2</v>
+        <v>0.48337940000000001</v>
       </c>
       <c r="F96" s="16">
-        <v>-4.96126E-2</v>
+        <v>-9.20295E-2</v>
       </c>
       <c r="G96" s="16">
-        <v>2.92164E-2</v>
+        <v>5.2275299999999997E-2</v>
       </c>
       <c r="H96" s="16">
-        <v>-7.73205E-2</v>
+        <v>-8.0594799999999994E-2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3377,19 +3379,19 @@
         <v>18</v>
       </c>
       <c r="D97" s="16">
-        <v>-2.0900000000000001E-4</v>
+        <v>-0.3208067</v>
       </c>
       <c r="E97" s="16">
-        <v>1.7747099999999998E-2</v>
+        <v>0.48337940000000001</v>
       </c>
       <c r="F97" s="16">
-        <v>0.13333700000000001</v>
+        <v>0.24733530000000001</v>
       </c>
       <c r="G97" s="16">
-        <v>0.23369870000000001</v>
+        <v>0.41814420000000002</v>
       </c>
       <c r="H97" s="16">
-        <v>0.1142861</v>
+        <v>0.1191258</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3401,19 +3403,19 @@
         <v>19</v>
       </c>
       <c r="D98" s="16">
-        <v>1.0671999999999999E-3</v>
+        <v>1.6377999999999999</v>
       </c>
       <c r="E98" s="16">
-        <v>1.7747099999999998E-2</v>
+        <v>0.48337940000000001</v>
       </c>
       <c r="F98" s="16">
-        <v>-7.4175699999999997E-2</v>
+        <v>-0.1375932</v>
       </c>
       <c r="G98" s="16">
-        <v>9.9310000000000006E-3</v>
+        <v>1.7768900000000001E-2</v>
       </c>
       <c r="H98" s="16">
-        <v>-0.11216379999999999</v>
+        <v>-0.11691360000000001</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3425,19 +3427,19 @@
         <v>20</v>
       </c>
       <c r="D99" s="16">
-        <v>-5.0790000000000004E-4</v>
+        <v>-0.77938149999999995</v>
       </c>
       <c r="E99" s="16">
-        <v>1.7747099999999998E-2</v>
+        <v>0.48337940000000001</v>
       </c>
       <c r="F99" s="16">
-        <v>-6.2319800000000002E-2</v>
+        <v>-0.115601</v>
       </c>
       <c r="G99" s="16">
-        <v>3.0346000000000001E-2</v>
+        <v>5.4296499999999998E-2</v>
       </c>
       <c r="H99" s="16">
-        <v>-9.8969500000000002E-2</v>
+        <v>-0.1031605</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3449,19 +3451,19 @@
         <v>21</v>
       </c>
       <c r="D100" s="16">
-        <v>4.2910000000000002E-4</v>
+        <v>0.65852849999999996</v>
       </c>
       <c r="E100" s="16">
-        <v>1.7747099999999998E-2</v>
+        <v>0.48337940000000001</v>
       </c>
       <c r="F100" s="16">
-        <v>-2.7814999999999999E-2</v>
+        <v>-5.15959E-2</v>
       </c>
       <c r="G100" s="16">
-        <v>2.24894E-2</v>
+        <v>4.0238999999999997E-2</v>
       </c>
       <c r="H100" s="16">
-        <v>-5.6759499999999997E-2</v>
+        <v>-5.9163100000000003E-2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3473,19 +3475,19 @@
         <v>11</v>
       </c>
       <c r="D101" s="16">
-        <v>3.1699999999999998E-5</v>
+        <v>4.8679E-2</v>
       </c>
       <c r="E101" s="16">
-        <v>4.3047700000000001E-2</v>
+        <v>1.172498</v>
       </c>
       <c r="F101" s="16">
-        <v>-9.43079E-2</v>
+        <v>-0.1749377</v>
       </c>
       <c r="G101" s="16">
-        <v>-5.9492000000000003E-2</v>
+        <v>-0.1064457</v>
       </c>
       <c r="H101" s="16">
-        <v>-0.15713869999999999</v>
+        <v>-0.1637931</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3497,19 +3499,19 @@
         <v>12</v>
       </c>
       <c r="D102" s="16">
-        <v>6.5099999999999999E-7</v>
+        <v>9.9850000000000004E-4</v>
       </c>
       <c r="E102" s="16">
-        <v>5.8765400000000002E-2</v>
+        <v>1.600603</v>
       </c>
       <c r="F102" s="16">
-        <v>-4.6241999999999998E-2</v>
+        <v>-8.5777199999999998E-2</v>
       </c>
       <c r="G102" s="16">
-        <v>2.7057100000000001E-2</v>
+        <v>4.8411900000000001E-2</v>
       </c>
       <c r="H102" s="16">
-        <v>-9.0375399999999995E-2</v>
+        <v>-9.4202499999999995E-2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3521,19 +3523,19 @@
         <v>13</v>
       </c>
       <c r="D103" s="16">
-        <v>2.12E-6</v>
+        <v>3.2468000000000002E-3</v>
       </c>
       <c r="E103" s="16">
-        <v>2.6704599999999998E-2</v>
+        <v>0.72735669999999997</v>
       </c>
       <c r="F103" s="16">
-        <v>-3.1102999999999999E-2</v>
+        <v>-5.76949E-2</v>
       </c>
       <c r="G103" s="16">
-        <v>1.84076E-2</v>
+        <v>3.2935699999999998E-2</v>
       </c>
       <c r="H103" s="16">
-        <v>-8.0695500000000003E-2</v>
+        <v>-8.4112699999999999E-2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3545,19 +3547,19 @@
         <v>14</v>
       </c>
       <c r="D104" s="16">
-        <v>1.66E-5</v>
+        <v>2.55102E-2</v>
       </c>
       <c r="E104" s="16">
-        <v>4.06544E-2</v>
+        <v>1.10731</v>
       </c>
       <c r="F104" s="16">
-        <v>3.35289E-2</v>
+        <v>6.2195E-2</v>
       </c>
       <c r="G104" s="16">
-        <v>9.5044000000000003E-2</v>
+        <v>0.17005690000000001</v>
       </c>
       <c r="H104" s="16">
-        <v>-9.1646400000000003E-2</v>
+        <v>-9.5527299999999996E-2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3572,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="16">
-        <v>3.27046E-2</v>
+        <v>0.89078069999999998</v>
       </c>
       <c r="F105" s="16">
         <v>0</v>
@@ -3593,19 +3595,19 @@
         <v>16</v>
       </c>
       <c r="D106" s="16">
-        <v>3.4499999999999998E-5</v>
+        <v>5.3015399999999997E-2</v>
       </c>
       <c r="E106" s="16">
-        <v>3.4624799999999997E-2</v>
+        <v>0.94308250000000005</v>
       </c>
       <c r="F106" s="16">
-        <v>-4.6116200000000003E-2</v>
+        <v>-8.5543900000000006E-2</v>
       </c>
       <c r="G106" s="16">
-        <v>-2.1460000000000001E-4</v>
+        <v>-3.8400000000000001E-4</v>
       </c>
       <c r="H106" s="16">
-        <v>-0.1107103</v>
+        <v>-0.1153985</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3617,19 +3619,19 @@
         <v>17</v>
       </c>
       <c r="D107" s="16">
-        <v>4.07E-5</v>
+        <v>6.2517799999999998E-2</v>
       </c>
       <c r="E107" s="16">
-        <v>2.20191E-2</v>
+        <v>0.59973670000000001</v>
       </c>
       <c r="F107" s="16">
-        <v>1.8778699999999999E-2</v>
+        <v>3.4833700000000002E-2</v>
       </c>
       <c r="G107" s="16">
-        <v>6.3494300000000004E-2</v>
+        <v>0.113607</v>
       </c>
       <c r="H107" s="16">
-        <v>-5.0326700000000002E-2</v>
+        <v>-5.2457900000000002E-2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3641,19 +3643,19 @@
         <v>18</v>
       </c>
       <c r="D108" s="16">
-        <v>9.6399999999999999E-5</v>
+        <v>0.14794080000000001</v>
       </c>
       <c r="E108" s="16">
-        <v>4.78431E-2</v>
+        <v>1.3031109999999999</v>
       </c>
       <c r="F108" s="16">
-        <v>0.23067170000000001</v>
+        <v>0.42788759999999998</v>
       </c>
       <c r="G108" s="16">
-        <v>0.3700078</v>
+        <v>0.66203460000000003</v>
       </c>
       <c r="H108" s="16">
-        <v>0.1574499</v>
+        <v>0.1641175</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3665,19 +3667,19 @@
         <v>19</v>
       </c>
       <c r="D109" s="16">
-        <v>1.3200000000000001E-5</v>
+        <v>2.0271399999999998E-2</v>
       </c>
       <c r="E109" s="16">
-        <v>5.8659799999999998E-2</v>
+        <v>1.597726</v>
       </c>
       <c r="F109" s="16">
-        <v>-6.02969E-2</v>
+        <v>-0.1118485</v>
       </c>
       <c r="G109" s="16">
-        <v>5.3005999999999999E-3</v>
+        <v>9.4839999999999994E-3</v>
       </c>
       <c r="H109" s="16">
-        <v>-0.1199094</v>
+        <v>-0.12498720000000001</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3689,19 +3691,19 @@
         <v>20</v>
       </c>
       <c r="D110" s="16">
-        <v>2.4909999999999998E-4</v>
+        <v>0.38229190000000002</v>
       </c>
       <c r="E110" s="16">
-        <v>0.13635240000000001</v>
+        <v>3.713851</v>
       </c>
       <c r="F110" s="16">
-        <v>-1.1922200000000001E-2</v>
+        <v>-2.2115300000000001E-2</v>
       </c>
       <c r="G110" s="16">
-        <v>9.0028E-3</v>
+        <v>1.61082E-2</v>
       </c>
       <c r="H110" s="16">
-        <v>-7.8645199999999998E-2</v>
+        <v>-8.1975599999999996E-2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3713,19 +3715,19 @@
         <v>21</v>
       </c>
       <c r="D111" s="17">
-        <v>4.1399999999999997E-5</v>
+        <v>6.3529699999999995E-2</v>
       </c>
       <c r="E111" s="17">
-        <v>6.3051599999999999E-2</v>
+        <v>1.717346</v>
       </c>
       <c r="F111" s="16">
-        <v>-2.8270799999999999E-2</v>
+        <v>-5.2441399999999999E-2</v>
       </c>
       <c r="G111" s="17">
-        <v>8.7601799999999994E-2</v>
+        <v>0.15674109999999999</v>
       </c>
       <c r="H111" s="17">
-        <v>-6.7103700000000002E-2</v>
+        <v>-6.9945400000000005E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8016,11 +8018,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7BF10A-3E7C-425B-9B83-4A2051955AAD}">
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="A42" sqref="A42:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8102,16 +8104,16 @@
         <v>1.6719399999999999E-2</v>
       </c>
       <c r="L2" s="15">
-        <f>G2+H2</f>
+        <f t="shared" ref="L2:L33" si="0">G2+H2</f>
         <v>0.25612540000000006</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="16">
@@ -8139,7 +8141,7 @@
         <v>2.00409E-2</v>
       </c>
       <c r="L3" s="16">
-        <f>G3+H3</f>
+        <f t="shared" si="0"/>
         <v>0.24434810000000001</v>
       </c>
     </row>
@@ -8176,16 +8178,16 @@
         <v>1.5394400000000001E-2</v>
       </c>
       <c r="L4" s="16">
-        <f>G4+H4</f>
+        <f t="shared" si="0"/>
         <v>-0.339009</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="16">
@@ -8213,7 +8215,7 @@
         <v>3.19235E-2</v>
       </c>
       <c r="L5" s="16">
-        <f>G5+H5</f>
+        <f t="shared" si="0"/>
         <v>0.50203399999999998</v>
       </c>
     </row>
@@ -8250,16 +8252,16 @@
         <v>8.2535000000000004E-3</v>
       </c>
       <c r="L6" s="16">
-        <f>G6+H6</f>
+        <f t="shared" si="0"/>
         <v>0.15760270000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="16">
@@ -8287,7 +8289,7 @@
         <v>3.3155999999999998E-2</v>
       </c>
       <c r="L7" s="16">
-        <f>G7+H7</f>
+        <f t="shared" si="0"/>
         <v>0.39597710000000003</v>
       </c>
     </row>
@@ -8324,16 +8326,16 @@
         <v>2.4355399999999999E-2</v>
       </c>
       <c r="L8" s="16">
-        <f>G8+H8</f>
+        <f t="shared" si="0"/>
         <v>-0.16602349999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="16">
@@ -8361,7 +8363,7 @@
         <v>1.83714E-2</v>
       </c>
       <c r="L9" s="16">
-        <f>G9+H9</f>
+        <f t="shared" si="0"/>
         <v>-9.4801400000000008E-2</v>
       </c>
     </row>
@@ -8398,16 +8400,16 @@
         <v>1.86727E-2</v>
       </c>
       <c r="L10" s="16">
-        <f>G10+H10</f>
+        <f t="shared" si="0"/>
         <v>-3.6898000000000208E-3</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="16">
@@ -8435,16 +8437,16 @@
         <v>3.9582199999999998E-2</v>
       </c>
       <c r="L11" s="16">
-        <f>G11+H11</f>
+        <f t="shared" si="0"/>
         <v>0.56227009999999999</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="16">
@@ -8472,7 +8474,7 @@
         <v>1.7700999999999999E-3</v>
       </c>
       <c r="L12" s="16">
-        <f>G12+H12</f>
+        <f t="shared" si="0"/>
         <v>0.31521740000000004</v>
       </c>
     </row>
@@ -8509,16 +8511,16 @@
         <v>1.77813E-2</v>
       </c>
       <c r="L13" s="16">
-        <f>G13+H13</f>
+        <f t="shared" si="0"/>
         <v>0.32319490000000001</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="16">
@@ -8546,7 +8548,7 @@
         <v>2.0559399999999999E-2</v>
       </c>
       <c r="L14" s="16">
-        <f>G14+H14</f>
+        <f t="shared" si="0"/>
         <v>0.30431740000000002</v>
       </c>
     </row>
@@ -8583,16 +8585,16 @@
         <v>4.8336999999999998E-3</v>
       </c>
       <c r="L15" s="16">
-        <f>G15+H15</f>
+        <f t="shared" si="0"/>
         <v>0.51032759999999999</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="16">
@@ -8620,7 +8622,7 @@
         <v>3.8947999999999999E-3</v>
       </c>
       <c r="L16" s="16">
-        <f>G16+H16</f>
+        <f t="shared" si="0"/>
         <v>0.32299650000000002</v>
       </c>
     </row>
@@ -8657,16 +8659,16 @@
         <v>-1.13907E-2</v>
       </c>
       <c r="L17" s="16">
-        <f>G17+H17</f>
+        <f t="shared" si="0"/>
         <v>0.48007420000000001</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="16">
@@ -8694,7 +8696,7 @@
         <v>2.44114E-2</v>
       </c>
       <c r="L18" s="16">
-        <f>G18+H18</f>
+        <f t="shared" si="0"/>
         <v>0.28870010000000002</v>
       </c>
     </row>
@@ -8731,16 +8733,16 @@
         <v>2.5490100000000002E-2</v>
       </c>
       <c r="L19" s="16">
-        <f>G19+H19</f>
+        <f t="shared" si="0"/>
         <v>-2.3567299999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="16">
@@ -8768,7 +8770,7 @@
         <v>1.1251E-3</v>
       </c>
       <c r="L20" s="16">
-        <f>G20+H20</f>
+        <f t="shared" si="0"/>
         <v>0.23786149999999998</v>
       </c>
     </row>
@@ -8805,16 +8807,16 @@
         <v>2.2764900000000001E-2</v>
       </c>
       <c r="L21" s="16">
-        <f>G21+H21</f>
+        <f t="shared" si="0"/>
         <v>0.79671619999999999</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="16">
@@ -8842,16 +8844,16 @@
         <v>-9.6866999999999995E-3</v>
       </c>
       <c r="L22" s="16">
-        <f>G22+H22</f>
+        <f t="shared" si="0"/>
         <v>0.28623609999999999</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="16">
@@ -8879,7 +8881,7 @@
         <v>1.016E-3</v>
       </c>
       <c r="L23" s="16">
-        <f>G23+H23</f>
+        <f t="shared" si="0"/>
         <v>0.43108340000000001</v>
       </c>
     </row>
@@ -8916,16 +8918,16 @@
         <v>2.3765399999999999E-2</v>
       </c>
       <c r="L24" s="16">
-        <f>G24+H24</f>
+        <f t="shared" si="0"/>
         <v>0.35339730000000003</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="16">
@@ -8953,7 +8955,7 @@
         <v>1.6685999999999999E-3</v>
       </c>
       <c r="L25" s="16">
-        <f>G25+H25</f>
+        <f t="shared" si="0"/>
         <v>0.49585820000000003</v>
       </c>
     </row>
@@ -8990,16 +8992,16 @@
         <v>-2.38447E-2</v>
       </c>
       <c r="L26" s="16">
-        <f>G26+H26</f>
+        <f t="shared" si="0"/>
         <v>0.28495169999999997</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="16">
@@ -9027,7 +9029,7 @@
         <v>1.0841399999999999E-2</v>
       </c>
       <c r="L27" s="16">
-        <f>G27+H27</f>
+        <f t="shared" si="0"/>
         <v>0.4864694</v>
       </c>
     </row>
@@ -9064,16 +9066,16 @@
         <v>1.9025799999999999E-2</v>
       </c>
       <c r="L28" s="16">
-        <f>G28+H28</f>
+        <f t="shared" si="0"/>
         <v>0.23275090000000001</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="16">
@@ -9101,7 +9103,7 @@
         <v>1.9286000000000001E-2</v>
       </c>
       <c r="L29" s="16">
-        <f>G29+H29</f>
+        <f t="shared" si="0"/>
         <v>-5.1776000000000003E-2</v>
       </c>
     </row>
@@ -9138,16 +9140,16 @@
         <v>3.3322999999999998E-3</v>
       </c>
       <c r="L30" s="16">
-        <f>G30+H30</f>
+        <f t="shared" si="0"/>
         <v>0.1281158</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="16">
@@ -9175,16 +9177,16 @@
         <v>2.03266E-2</v>
       </c>
       <c r="L31" s="16">
-        <f>G31+H31</f>
+        <f t="shared" si="0"/>
         <v>0.36080519999999999</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="16">
@@ -9212,7 +9214,7 @@
         <v>0.67693049999999999</v>
       </c>
       <c r="L32" s="16">
-        <f>G32+H32</f>
+        <f t="shared" si="0"/>
         <v>1.2019104999999999</v>
       </c>
     </row>
@@ -9249,16 +9251,16 @@
         <v>0.10268380000000001</v>
       </c>
       <c r="L33" s="16">
-        <f>G33+H33</f>
+        <f t="shared" si="0"/>
         <v>0.23842530000000001</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="16">
@@ -9286,7 +9288,7 @@
         <v>0.27442430000000001</v>
       </c>
       <c r="L34" s="16">
-        <f>G34+H34</f>
+        <f t="shared" ref="L34:L65" si="1">G34+H34</f>
         <v>-9.3604999999999994E-2</v>
       </c>
     </row>
@@ -9323,16 +9325,16 @@
         <v>-1.5804E-3</v>
       </c>
       <c r="L35" s="16">
-        <f>G35+H35</f>
+        <f t="shared" si="1"/>
         <v>0.41463510000000003</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="16">
@@ -9360,7 +9362,7 @@
         <v>-2.5010500000000001E-2</v>
       </c>
       <c r="L36" s="16">
-        <f>G36+H36</f>
+        <f t="shared" si="1"/>
         <v>0.28680369999999999</v>
       </c>
     </row>
@@ -9397,16 +9399,16 @@
         <v>9.1027999999999998E-2</v>
       </c>
       <c r="L37" s="16">
-        <f>G37+H37</f>
+        <f t="shared" si="1"/>
         <v>0.49363630000000003</v>
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="16">
@@ -9434,7 +9436,7 @@
         <v>8.2559400000000005E-2</v>
       </c>
       <c r="L38" s="16">
-        <f>G38+H38</f>
+        <f t="shared" si="1"/>
         <v>0.10000420000000002</v>
       </c>
     </row>
@@ -9471,16 +9473,16 @@
         <v>7.7499299999999993E-2</v>
       </c>
       <c r="L39" s="16">
-        <f>G39+H39</f>
+        <f t="shared" si="1"/>
         <v>-2.8767000000000001E-2</v>
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="16">
@@ -9508,7 +9510,7 @@
         <v>4.9501099999999999E-2</v>
       </c>
       <c r="L40" s="16">
-        <f>G40+H40</f>
+        <f t="shared" si="1"/>
         <v>0.11782119999999999</v>
       </c>
     </row>
@@ -9545,16 +9547,16 @@
         <v>2.3085100000000001E-2</v>
       </c>
       <c r="L41" s="16">
-        <f>G41+H41</f>
+        <f t="shared" si="1"/>
         <v>0.54012179999999999</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11" t="s">
+      <c r="B42" s="13"/>
+      <c r="C42" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="16">
@@ -9582,16 +9584,16 @@
         <v>-4.6127E-3</v>
       </c>
       <c r="L42" s="16">
-        <f>G42+H42</f>
+        <f t="shared" si="1"/>
         <v>0.31718480000000004</v>
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="7" t="s">
+      <c r="B43" s="10"/>
+      <c r="C43" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="16">
@@ -9619,7 +9621,7 @@
         <v>2.0240399999999999E-2</v>
       </c>
       <c r="L43" s="16">
-        <f>G43+H43</f>
+        <f t="shared" si="1"/>
         <v>0.32671230000000001</v>
       </c>
     </row>
@@ -9656,16 +9658,16 @@
         <v>3.10023E-2</v>
       </c>
       <c r="L44" s="16">
-        <f>G44+H44</f>
+        <f t="shared" si="1"/>
         <v>0.31713659999999999</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="7" t="s">
+      <c r="B45" s="10"/>
+      <c r="C45" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="16">
@@ -9693,7 +9695,7 @@
         <v>-2.0249000000000001E-3</v>
       </c>
       <c r="L45" s="16">
-        <f>G45+H45</f>
+        <f t="shared" si="1"/>
         <v>0.49242560000000002</v>
       </c>
     </row>
@@ -9730,16 +9732,16 @@
         <v>-7.5814000000000003E-3</v>
       </c>
       <c r="L46" s="16">
-        <f>G46+H46</f>
+        <f t="shared" si="1"/>
         <v>0.31739630000000002</v>
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="7" t="s">
+      <c r="B47" s="10"/>
+      <c r="C47" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="16">
@@ -9767,7 +9769,7 @@
         <v>2.3139099999999999E-2</v>
       </c>
       <c r="L47" s="16">
-        <f>G47+H47</f>
+        <f t="shared" si="1"/>
         <v>0.47345039999999999</v>
       </c>
     </row>
@@ -9804,16 +9806,16 @@
         <v>2.9357299999999999E-2</v>
       </c>
       <c r="L48" s="16">
-        <f>G48+H48</f>
+        <f t="shared" si="1"/>
         <v>0.27759990000000001</v>
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="7" t="s">
+      <c r="B49" s="10"/>
+      <c r="C49" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="16">
@@ -9841,7 +9843,7 @@
         <v>1.6764600000000001E-2</v>
       </c>
       <c r="L49" s="16">
-        <f>G49+H49</f>
+        <f t="shared" si="1"/>
         <v>-2.2112200000000002E-2</v>
       </c>
     </row>
@@ -9878,16 +9880,16 @@
         <v>0</v>
       </c>
       <c r="L50" s="16">
-        <f>G50+H50</f>
+        <f t="shared" si="1"/>
         <v>0.24074119999999999</v>
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="7" t="s">
+      <c r="B51" s="10"/>
+      <c r="C51" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="16">
@@ -9915,16 +9917,16 @@
         <v>0</v>
       </c>
       <c r="L51" s="16">
-        <f>G51+H51</f>
+        <f t="shared" si="1"/>
         <v>0.44364239999999999</v>
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="11" t="s">
+      <c r="B52" s="4"/>
+      <c r="C52" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="16">
@@ -9952,7 +9954,7 @@
         <v>9.9659999999999992E-3</v>
       </c>
       <c r="L52" s="16">
-        <f>G52+H52</f>
+        <f t="shared" si="1"/>
         <v>-0.23717159999999993</v>
       </c>
     </row>
@@ -9989,16 +9991,16 @@
         <v>1.41332E-2</v>
       </c>
       <c r="L53" s="16">
-        <f>G53+H53</f>
+        <f t="shared" si="1"/>
         <v>-0.10588649999999999</v>
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="11" t="s">
+      <c r="B54" s="4"/>
+      <c r="C54" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="16">
@@ -10026,7 +10028,7 @@
         <v>2.7937799999999999E-2</v>
       </c>
       <c r="L54" s="16">
-        <f>G54+H54</f>
+        <f t="shared" si="1"/>
         <v>-0.33111800000000002</v>
       </c>
     </row>
@@ -10063,16 +10065,16 @@
         <v>1.53776E-2</v>
       </c>
       <c r="L55" s="16">
-        <f>G55+H55</f>
+        <f t="shared" si="1"/>
         <v>0.28026320000000005</v>
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="11" t="s">
+      <c r="B56" s="4"/>
+      <c r="C56" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="16">
@@ -10100,7 +10102,7 @@
         <v>-2.1875000000000002E-3</v>
       </c>
       <c r="L56" s="16">
-        <f>G56+H56</f>
+        <f t="shared" si="1"/>
         <v>0.13427700000000001</v>
       </c>
     </row>
@@ -10137,16 +10139,16 @@
         <v>1.3006E-2</v>
       </c>
       <c r="L57" s="16">
-        <f>G57+H57</f>
+        <f t="shared" si="1"/>
         <v>0.33359320000000003</v>
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="11" t="s">
+      <c r="B58" s="4"/>
+      <c r="C58" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="16">
@@ -10174,7 +10176,7 @@
         <v>2.4830700000000001E-2</v>
       </c>
       <c r="L58" s="16">
-        <f>G58+H58</f>
+        <f t="shared" si="1"/>
         <v>-2.182050000000002E-2</v>
       </c>
     </row>
@@ -10211,16 +10213,16 @@
         <v>1.7767700000000001E-2</v>
       </c>
       <c r="L59" s="16">
-        <f>G59+H59</f>
+        <f t="shared" si="1"/>
         <v>-0.18425940000000002</v>
       </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="11" t="s">
+      <c r="B60" s="4"/>
+      <c r="C60" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="16">
@@ -10248,7 +10250,7 @@
         <v>1.8180700000000001E-2</v>
       </c>
       <c r="L60" s="16">
-        <f>G60+H60</f>
+        <f t="shared" si="1"/>
         <v>-4.2269900000000027E-2</v>
       </c>
     </row>
@@ -10285,16 +10287,16 @@
         <v>2.7887100000000001E-2</v>
       </c>
       <c r="L61" s="16">
-        <f>G61+H61</f>
+        <f t="shared" si="1"/>
         <v>0.44608140000000002</v>
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="11" t="s">
+      <c r="B62" s="13"/>
+      <c r="C62" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="16">
@@ -10322,16 +10324,16 @@
         <v>2.34807E-2</v>
       </c>
       <c r="L62" s="16">
-        <f>G62+H62</f>
+        <f t="shared" si="1"/>
         <v>-0.25154670000000001</v>
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="7" t="s">
+      <c r="B63" s="10"/>
+      <c r="C63" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="16">
@@ -10359,7 +10361,7 @@
         <v>9.1424000000000002E-3</v>
       </c>
       <c r="L63" s="16">
-        <f>G63+H63</f>
+        <f t="shared" si="1"/>
         <v>4.5393699999999981E-2</v>
       </c>
     </row>
@@ -10396,16 +10398,16 @@
         <v>2.7855499999999998E-2</v>
       </c>
       <c r="L64" s="16">
-        <f>G64+H64</f>
+        <f t="shared" si="1"/>
         <v>0.51557750000000002</v>
       </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="7" t="s">
+      <c r="B65" s="10"/>
+      <c r="C65" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="16">
@@ -10433,7 +10435,7 @@
         <v>-6.4399999999999993E-5</v>
       </c>
       <c r="L65" s="16">
-        <f>G65+H65</f>
+        <f t="shared" si="1"/>
         <v>0.59500450000000005</v>
       </c>
     </row>
@@ -10470,16 +10472,16 @@
         <v>-9.1433999999999994E-3</v>
       </c>
       <c r="L66" s="16">
-        <f>G66+H66</f>
+        <f t="shared" ref="L66:L97" si="2">G66+H66</f>
         <v>0.24746459999999998</v>
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="7" t="s">
+      <c r="B67" s="10"/>
+      <c r="C67" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="16">
@@ -10507,7 +10509,7 @@
         <v>2.3089499999999999E-2</v>
       </c>
       <c r="L67" s="16">
-        <f>G67+H67</f>
+        <f t="shared" si="2"/>
         <v>0.43729680000000004</v>
       </c>
     </row>
@@ -10544,16 +10546,16 @@
         <v>1.9103700000000001E-2</v>
       </c>
       <c r="L68" s="16">
-        <f>G68+H68</f>
+        <f t="shared" si="2"/>
         <v>-8.143699999999976E-3</v>
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="7" t="s">
+      <c r="B69" s="10"/>
+      <c r="C69" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="16">
@@ -10581,7 +10583,7 @@
         <v>1.7878700000000001E-2</v>
       </c>
       <c r="L69" s="16">
-        <f>G69+H69</f>
+        <f t="shared" si="2"/>
         <v>-0.25747310000000001</v>
       </c>
     </row>
@@ -10618,16 +10620,16 @@
         <v>1.9476500000000001E-2</v>
       </c>
       <c r="L70" s="16">
-        <f>G70+H70</f>
+        <f t="shared" si="2"/>
         <v>-0.14186379999999998</v>
       </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="7" t="s">
+      <c r="B71" s="10"/>
+      <c r="C71" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="16">
@@ -10655,16 +10657,16 @@
         <v>1.26769E-2</v>
       </c>
       <c r="L71" s="16">
-        <f>G71+H71</f>
+        <f t="shared" si="2"/>
         <v>0.2708506</v>
       </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="11" t="s">
+      <c r="B72" s="4"/>
+      <c r="C72" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D72" s="16">
@@ -10692,7 +10694,7 @@
         <v>-3.9389000000000004E-3</v>
       </c>
       <c r="L72" s="16">
-        <f>G72+H72</f>
+        <f t="shared" si="2"/>
         <v>0.10641340000000002</v>
       </c>
     </row>
@@ -10729,16 +10731,16 @@
         <v>-3.9055000000000001E-3</v>
       </c>
       <c r="L73" s="16">
-        <f>G73+H73</f>
+        <f t="shared" si="2"/>
         <v>0.36298980000000003</v>
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="11" t="s">
+      <c r="B74" s="4"/>
+      <c r="C74" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="16">
@@ -10766,7 +10768,7 @@
         <v>8.2413999999999994E-3</v>
       </c>
       <c r="L74" s="16">
-        <f>G74+H74</f>
+        <f t="shared" si="2"/>
         <v>0.42912689999999998</v>
       </c>
     </row>
@@ -10803,16 +10805,16 @@
         <v>-2.0030699999999999E-2</v>
       </c>
       <c r="L75" s="16">
-        <f>G75+H75</f>
+        <f t="shared" si="2"/>
         <v>0.76136740000000003</v>
       </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="11" t="s">
+      <c r="B76" s="4"/>
+      <c r="C76" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="16">
@@ -10840,7 +10842,7 @@
         <v>-3.69974E-2</v>
       </c>
       <c r="L76" s="16">
-        <f>G76+H76</f>
+        <f t="shared" si="2"/>
         <v>0.30297380000000002</v>
       </c>
     </row>
@@ -10877,16 +10879,16 @@
         <v>6.2081000000000003E-3</v>
       </c>
       <c r="L77" s="16">
-        <f>G77+H77</f>
+        <f t="shared" si="2"/>
         <v>0.48339550000000003</v>
       </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="11" t="s">
+      <c r="B78" s="4"/>
+      <c r="C78" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D78" s="16">
@@ -10914,7 +10916,7 @@
         <v>4.6755100000000001E-2</v>
       </c>
       <c r="L78" s="16">
-        <f>G78+H78</f>
+        <f t="shared" si="2"/>
         <v>0.24237920000000002</v>
       </c>
     </row>
@@ -10951,16 +10953,16 @@
         <v>-4.9914699999999999E-2</v>
       </c>
       <c r="L79" s="16">
-        <f>G79+H79</f>
+        <f t="shared" si="2"/>
         <v>-3.9423800000000002E-2</v>
       </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="11" t="s">
+      <c r="B80" s="4"/>
+      <c r="C80" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D80" s="16">
@@ -10988,7 +10990,7 @@
         <v>-2.8787900000000002E-2</v>
       </c>
       <c r="L80" s="16">
-        <f>G80+H80</f>
+        <f t="shared" si="2"/>
         <v>0.38360539999999999</v>
       </c>
     </row>
@@ -11025,16 +11027,16 @@
         <v>-3.9660500000000001E-2</v>
       </c>
       <c r="L81" s="16">
-        <f>G81+H81</f>
+        <f t="shared" si="2"/>
         <v>0.58311639999999998</v>
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="11" t="s">
+      <c r="B82" s="13"/>
+      <c r="C82" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D82" s="16">
@@ -11062,16 +11064,16 @@
         <v>1.19261E-2</v>
       </c>
       <c r="L82" s="16">
-        <f>G82+H82</f>
+        <f t="shared" si="2"/>
         <v>0.13281080000000003</v>
       </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="7" t="s">
+      <c r="B83" s="10"/>
+      <c r="C83" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D83" s="16">
@@ -11099,7 +11101,7 @@
         <v>3.3899400000000003E-2</v>
       </c>
       <c r="L83" s="16">
-        <f>G83+H83</f>
+        <f t="shared" si="2"/>
         <v>4.9025900000000011E-2</v>
       </c>
     </row>
@@ -11136,16 +11138,16 @@
         <v>2.89045E-2</v>
       </c>
       <c r="L84" s="16">
-        <f>G84+H84</f>
+        <f t="shared" si="2"/>
         <v>-8.8635299999999972E-2</v>
       </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="7" t="s">
+      <c r="B85" s="10"/>
+      <c r="C85" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D85" s="16">
@@ -11173,7 +11175,7 @@
         <v>2.63854E-2</v>
       </c>
       <c r="L85" s="16">
-        <f>G85+H85</f>
+        <f t="shared" si="2"/>
         <v>0.1730778</v>
       </c>
     </row>
@@ -11210,16 +11212,16 @@
         <v>1.66824E-2</v>
       </c>
       <c r="L86" s="16">
-        <f>G86+H86</f>
+        <f t="shared" si="2"/>
         <v>0.16662979999999999</v>
       </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="7" t="s">
+      <c r="B87" s="10"/>
+      <c r="C87" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D87" s="16">
@@ -11247,7 +11249,7 @@
         <v>5.0750999999999998E-2</v>
       </c>
       <c r="L87" s="16">
-        <f>G87+H87</f>
+        <f t="shared" si="2"/>
         <v>0.42727750000000003</v>
       </c>
     </row>
@@ -11284,16 +11286,16 @@
         <v>3.1541100000000002E-2</v>
       </c>
       <c r="L88" s="16">
-        <f>G88+H88</f>
+        <f t="shared" si="2"/>
         <v>3.2174199999999986E-2</v>
       </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="7" t="s">
+      <c r="B89" s="10"/>
+      <c r="C89" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D89" s="16">
@@ -11321,7 +11323,7 @@
         <v>3.28349E-2</v>
       </c>
       <c r="L89" s="16">
-        <f>G89+H89</f>
+        <f t="shared" si="2"/>
         <v>-5.8058999999999999E-2</v>
       </c>
     </row>
@@ -11358,16 +11360,16 @@
         <v>2.8253299999999999E-2</v>
       </c>
       <c r="L90" s="16">
-        <f>G90+H90</f>
+        <f t="shared" si="2"/>
         <v>-0.48861719999999997</v>
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="7" t="s">
+      <c r="B91" s="10"/>
+      <c r="C91" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D91" s="16">
@@ -11395,16 +11397,16 @@
         <v>3.02043E-2</v>
       </c>
       <c r="L91" s="16">
-        <f>G91+H91</f>
+        <f t="shared" si="2"/>
         <v>0.78670059999999997</v>
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B92" s="10"/>
-      <c r="C92" s="11" t="s">
+      <c r="B92" s="4"/>
+      <c r="C92" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D92" s="16">
@@ -11432,7 +11434,7 @@
         <v>-2.6765999999999999E-3</v>
       </c>
       <c r="L92" s="16">
-        <f>G92+H92</f>
+        <f t="shared" si="2"/>
         <v>-0.76301229999999998</v>
       </c>
     </row>
@@ -11469,16 +11471,16 @@
         <v>1.8620999999999999E-2</v>
       </c>
       <c r="L93" s="16">
-        <f>G93+H93</f>
+        <f t="shared" si="2"/>
         <v>1.2556384</v>
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="11" t="s">
+      <c r="B94" s="4"/>
+      <c r="C94" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D94" s="16">
@@ -11506,7 +11508,7 @@
         <v>9.7345999999999995E-3</v>
       </c>
       <c r="L94" s="16">
-        <f>G94+H94</f>
+        <f t="shared" si="2"/>
         <v>0.19166230000000001</v>
       </c>
     </row>
@@ -11543,16 +11545,16 @@
         <v>2.4078100000000002E-2</v>
       </c>
       <c r="L95" s="16">
-        <f>G95+H95</f>
+        <f t="shared" si="2"/>
         <v>5.0532000000000354E-3</v>
       </c>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="11" t="s">
+      <c r="B96" s="4"/>
+      <c r="C96" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D96" s="16">
@@ -11580,7 +11582,7 @@
         <v>3.1194099999999999E-2</v>
       </c>
       <c r="L96" s="16">
-        <f>G96+H96</f>
+        <f t="shared" si="2"/>
         <v>0.74618110000000004</v>
       </c>
     </row>
@@ -11617,16 +11619,16 @@
         <v>5.3300699999999999E-2</v>
       </c>
       <c r="L97" s="16">
-        <f>G97+H97</f>
+        <f t="shared" si="2"/>
         <v>0.326075</v>
       </c>
     </row>
     <row r="98" spans="1:12">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B98" s="10"/>
-      <c r="C98" s="11" t="s">
+      <c r="B98" s="4"/>
+      <c r="C98" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D98" s="16">
@@ -11654,7 +11656,7 @@
         <v>2.9333000000000001E-2</v>
       </c>
       <c r="L98" s="16">
-        <f>G98+H98</f>
+        <f t="shared" ref="L98:L111" si="3">G98+H98</f>
         <v>1.1269990999999999</v>
       </c>
     </row>
@@ -11691,16 +11693,16 @@
         <v>3.9510000000000001E-4</v>
       </c>
       <c r="L99" s="16">
-        <f>G99+H99</f>
+        <f t="shared" si="3"/>
         <v>-0.57096790000000008</v>
       </c>
     </row>
     <row r="100" spans="1:12">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="10"/>
-      <c r="C100" s="11" t="s">
+      <c r="B100" s="4"/>
+      <c r="C100" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D100" s="16">
@@ -11728,7 +11730,7 @@
         <v>2.4929699999999999E-2</v>
       </c>
       <c r="L100" s="16">
-        <f>G100+H100</f>
+        <f t="shared" si="3"/>
         <v>0.58782160000000006</v>
       </c>
     </row>
@@ -11765,16 +11767,16 @@
         <v>1.98102E-2</v>
       </c>
       <c r="L101" s="16">
-        <f>G101+H101</f>
+        <f t="shared" si="3"/>
         <v>1.6793927</v>
       </c>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="11" t="s">
+      <c r="B102" s="13"/>
+      <c r="C102" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D102" s="16">
@@ -11802,16 +11804,16 @@
         <v>1.7258900000000001E-2</v>
       </c>
       <c r="L102" s="16">
-        <f>G102+H102</f>
+        <f t="shared" si="3"/>
         <v>0.15960720000000003</v>
       </c>
     </row>
     <row r="103" spans="1:12">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="4"/>
-      <c r="C103" s="7" t="s">
+      <c r="B103" s="10"/>
+      <c r="C103" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D103" s="16">
@@ -11839,7 +11841,7 @@
         <v>3.2481400000000001E-2</v>
       </c>
       <c r="L103" s="16">
-        <f>G103+H103</f>
+        <f t="shared" si="3"/>
         <v>0.39331050000000001</v>
       </c>
     </row>
@@ -11876,16 +11878,16 @@
         <v>2.7295900000000001E-2</v>
       </c>
       <c r="L104" s="16">
-        <f>G104+H104</f>
+        <f t="shared" si="3"/>
         <v>0.26296639999999999</v>
       </c>
     </row>
     <row r="105" spans="1:12">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="7" t="s">
+      <c r="B105" s="10"/>
+      <c r="C105" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D105" s="16">
@@ -11913,7 +11915,7 @@
         <v>2.9664800000000002E-2</v>
       </c>
       <c r="L105" s="16">
-        <f>G105+H105</f>
+        <f t="shared" si="3"/>
         <v>0.36465979999999998</v>
       </c>
     </row>
@@ -11950,16 +11952,16 @@
         <v>3.09106E-2</v>
       </c>
       <c r="L106" s="16">
-        <f>G106+H106</f>
+        <f t="shared" si="3"/>
         <v>0.25354509999999997</v>
       </c>
     </row>
     <row r="107" spans="1:12">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B107" s="4"/>
-      <c r="C107" s="7" t="s">
+      <c r="B107" s="10"/>
+      <c r="C107" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D107" s="16">
@@ -11987,7 +11989,7 @@
         <v>2.8764499999999998E-2</v>
       </c>
       <c r="L107" s="16">
-        <f>G107+H107</f>
+        <f t="shared" si="3"/>
         <v>0.43899920000000003</v>
       </c>
     </row>
@@ -12024,16 +12026,16 @@
         <v>3.61217E-2</v>
       </c>
       <c r="L108" s="16">
-        <f>G108+H108</f>
+        <f t="shared" si="3"/>
         <v>0.2730476</v>
       </c>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B109" s="4"/>
-      <c r="C109" s="7" t="s">
+      <c r="B109" s="10"/>
+      <c r="C109" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D109" s="16">
@@ -12061,7 +12063,7 @@
         <v>1.88019E-2</v>
       </c>
       <c r="L109" s="16">
-        <f>G109+H109</f>
+        <f t="shared" si="3"/>
         <v>-5.1927600000000004E-2</v>
       </c>
     </row>
@@ -12098,16 +12100,16 @@
         <v>1.4297300000000001E-2</v>
       </c>
       <c r="L110" s="16">
-        <f>G110+H110</f>
+        <f t="shared" si="3"/>
         <v>-5.2520000000000011E-2</v>
       </c>
     </row>
     <row r="111" spans="1:12">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B111" s="4"/>
-      <c r="C111" s="7" t="s">
+      <c r="B111" s="10"/>
+      <c r="C111" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D111" s="16">
@@ -12135,7 +12137,7 @@
         <v>1.6903000000000001E-2</v>
       </c>
       <c r="L111" s="16">
-        <f>G111+H111</f>
+        <f t="shared" si="3"/>
         <v>0.82701160000000007</v>
       </c>
     </row>

--- a/Laborshare/accounting.xlsx
+++ b/Laborshare/accounting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acube\Dropbox\Study\UC Davis\Writings\LaborShareKorea\Code_GELS_ver25 (countryaggregate)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FD1B50-0F94-49BA-A9AC-715618CA4C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D24DF34-630B-4737-9FF5-4E1CD6E70147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{129C318B-93D8-4464-A9AE-1723E55074BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{129C318B-93D8-4464-A9AE-1723E55074BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="4" r:id="rId1"/>
@@ -2491,8 +2491,8 @@
   </sheetPr>
   <dimension ref="B3:B13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18341,7 +18341,7 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/Laborshare/accounting.xlsx
+++ b/Laborshare/accounting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acube\Dropbox\Study\UC Davis\Writings\LaborShareKorea\Code_GELS_ver26 (countryaggregateMORE)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E588613D-364B-4BA2-BEF2-543F7FF9FDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{755D044A-1518-4E65-8E27-134B70DB1E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{129C318B-93D8-4464-A9AE-1723E55074BC}"/>
+    <workbookView xWindow="38280" yWindow="2880" windowWidth="29040" windowHeight="15720" xr2:uid="{129C318B-93D8-4464-A9AE-1723E55074BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Sheet10!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Sheet10!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet12!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet3!$A$1:$C$1</definedName>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="56">
   <si>
     <t>location</t>
   </si>
@@ -345,7 +345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -402,6 +402,15 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2434,6 +2443,219 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>315310</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85395</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="368499" cy="205121"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAA5EED-97B8-4DF6-89C2-6B062C145982}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6096000" y="85395"/>
+              <a:ext cx="368499" cy="205121"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>gr</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>_</m:t>
+                    </m:r>
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑆</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐿</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAA5EED-97B8-4DF6-89C2-6B062C145982}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6096000" y="85395"/>
+              <a:ext cx="368499" cy="205121"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>gr_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐿^𝑓</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2583,6 +2805,219 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="877285" y="85395"/>
+              <a:ext cx="368499" cy="205121"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>gr_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐿^𝑓</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>315310</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85395</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="368499" cy="205121"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{450A20E4-49E8-4B7A-BCA9-EEE1E2BCE3CD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7350672" y="85395"/>
+              <a:ext cx="368499" cy="205121"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>gr</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>_</m:t>
+                    </m:r>
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑆</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐿</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{450A20E4-49E8-4B7A-BCA9-EEE1E2BCE3CD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7350672" y="85395"/>
               <a:ext cx="368499" cy="205121"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3393,8 +3828,8 @@
   </sheetPr>
   <dimension ref="B3:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3546,7 +3981,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3833,78 +4268,6 @@
     <row r="13" spans="1:7" ht="15.75" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B12">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C12">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D12">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E12">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F12">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G12">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3922,7 +4285,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4335,114 +4698,6 @@
     <row r="13" spans="1:10" ht="15.75" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B12">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C12">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D12">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E12">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F12">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G12">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H12">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I12">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J12">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4460,7 +4715,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2:G12"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4749,78 +5004,6 @@
     <row r="13" spans="1:7" ht="15.75" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B12">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C12">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D12">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E12">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F12">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G12">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4837,7 +5020,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4851,7 +5034,7 @@
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1">
@@ -5250,114 +5433,6 @@
     <row r="13" spans="1:10" ht="15.75" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B12">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C12">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D12">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E12">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F12">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G12">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H12">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I12">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J12">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5371,11 +5446,11 @@
   </sheetPr>
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5421,22 +5496,22 @@
       <c r="C2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="19">
         <v>9.944699999999999E-4</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="19">
         <v>0.14099791</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="19">
         <v>0.84721022000000001</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="19">
         <v>1.4815E-3</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="19">
         <v>3.3141589999999999E-2</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="19">
         <v>-6.6867029999999994E-2</v>
       </c>
     </row>
@@ -5448,22 +5523,22 @@
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="20">
         <v>-1.1946439999999999E-2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="20">
         <v>8.3045800000000006E-3</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="20">
         <v>0.84721022000000001</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="20">
         <v>4.0189839999999998E-2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="20">
         <v>0.12628069</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="20">
         <v>-6.5027499999999998E-3</v>
       </c>
     </row>
@@ -5475,22 +5550,22 @@
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="20">
         <v>1.181161E-2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="20">
         <v>7.3383320000000002E-2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="20">
         <v>0.84721022000000001</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="20">
         <v>8.8674890000000006E-2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="20">
         <v>0.16420146999999999</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="20">
         <v>3.8612199999999999E-2</v>
       </c>
     </row>
@@ -5502,22 +5577,22 @@
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="20">
         <v>-1.8589560000000001E-2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="20">
         <v>-1.9827975</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="20">
         <v>0.84721022000000001</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="20">
         <v>2.2929417000000001</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="20">
         <v>2.3682568000000002</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="20">
         <v>-64.639690999999999</v>
       </c>
     </row>
@@ -5529,22 +5604,22 @@
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="20">
         <v>-9.8104000000000008E-4</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="20">
         <v>3.8868800000000001E-3</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="20">
         <v>0.84721022000000001</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="20">
         <v>8.0655790000000005E-2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="20">
         <v>0.16818677000000001</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="20">
         <v>1.9292650000000001E-2</v>
       </c>
     </row>
@@ -5556,22 +5631,22 @@
       <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="20">
         <v>-6.8770200000000002E-3</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="20">
         <v>1.2487144999999999</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="20">
         <v>0.84721022000000001</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="20">
         <v>2.3944610000000002E-2</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="20">
         <v>8.3964629999999998E-2</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="20">
         <v>-3.9829330000000003E-2</v>
       </c>
     </row>
@@ -5583,22 +5658,22 @@
       <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="20">
         <v>-2.90938E-3</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="20">
         <v>1.2809942000000001</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="20">
         <v>0.84721022000000001</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="20">
         <v>-3.2265929999999998E-2</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="20">
         <v>3.2845800000000001E-2</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="20">
         <v>-9.4359289999999998E-2</v>
       </c>
     </row>
@@ -5610,22 +5685,22 @@
       <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="20">
         <v>-4.6327199999999999E-2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="20">
         <v>0.47718185000000002</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="20">
         <v>0.84721022000000001</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="20">
         <v>6.680266E-2</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="20">
         <v>0.10950559999999999</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="20">
         <v>1.603661E-2</v>
       </c>
     </row>
@@ -5637,22 +5712,22 @@
       <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="20">
         <v>-1.749678E-2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="20">
         <v>0.41790545000000001</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="20">
         <v>0.84721022000000001</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="20">
         <v>3.90669E-3</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="20">
         <v>7.9977190000000004E-2</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="20">
         <v>-4.7300010000000003E-2</v>
       </c>
     </row>
@@ -5664,22 +5739,22 @@
       <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="20">
         <v>-1.9695770000000001E-2</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="20">
         <v>2.4295086000000001</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="20">
         <v>0.84721022000000001</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="20">
         <v>6.7250649999999995E-2</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="20">
         <v>0.14105181</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="20">
         <v>1.0899010000000001E-2</v>
       </c>
     </row>
@@ -5691,22 +5766,22 @@
       <c r="C12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="21">
         <v>2.62854E-3</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="21">
         <v>0.35773306999999999</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="21">
         <v>0.84721022000000001</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="21">
         <v>-1.596585E-2</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="21">
         <v>9.2527620000000005E-2</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="21">
         <v>-6.8382040000000005E-2</v>
       </c>
     </row>
@@ -5718,22 +5793,22 @@
       <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="19">
         <v>1.0749659999999999E-2</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="19">
         <v>0.19011892</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="19">
         <v>0.86970873000000004</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="19">
         <v>-3.0712000000000001E-3</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="19">
         <v>4.3854400000000002E-2</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="19">
         <v>-7.8243209999999994E-2</v>
       </c>
     </row>
@@ -5745,22 +5820,22 @@
       <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="20">
         <v>1.7160419999999999E-2</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="20">
         <v>1.3065459999999999E-2</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="20">
         <v>0.86970873000000004</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="20">
         <v>-1.8352540000000001E-2</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="20">
         <v>6.6380060000000005E-2</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="20">
         <v>-7.1373199999999998E-2</v>
       </c>
     </row>
@@ -5772,22 +5847,22 @@
       <c r="C15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="20">
         <v>1.4896919999999999E-2</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="20">
         <v>-0.22920212000000001</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="20">
         <v>0.86970873000000004</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="20">
         <v>5.0121579999999999E-2</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="20">
         <v>8.8445389999999999E-2</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="20">
         <v>-4.39377E-3</v>
       </c>
     </row>
@@ -5799,22 +5874,22 @@
       <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="20">
         <v>2.376023E-2</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="20">
         <v>0.20341873999999999</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="20">
         <v>0.86970873000000004</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="20">
         <v>-0.32223837999999999</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="20">
         <v>-0.31292133</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="20">
         <v>-0.40225730999999998</v>
       </c>
     </row>
@@ -5826,22 +5901,22 @@
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="20">
         <v>3.1447120000000002E-2</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="20">
         <v>5.1818599999999999E-3</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="20">
         <v>0.86970873000000004</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="20">
         <v>5.2187400000000004E-3</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="20">
         <v>5.6165569999999998E-2</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="20">
         <v>-8.1651479999999999E-2</v>
       </c>
     </row>
@@ -5853,22 +5928,22 @@
       <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="20">
         <v>1.7999390000000001E-2</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="20">
         <v>0.97658352999999998</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="20">
         <v>0.86970873000000004</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="20">
         <v>1.14082E-2</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="20">
         <v>5.9491179999999998E-2</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="20">
         <v>-5.6959990000000002E-2</v>
       </c>
     </row>
@@ -5880,22 +5955,22 @@
       <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="20">
         <v>8.1819000000000006E-3</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="20">
         <v>0.63687833000000005</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="20">
         <v>0.86970873000000004</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="20">
         <v>3.8323450000000002E-2</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="20">
         <v>8.5878019999999999E-2</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="20">
         <v>-3.6638490000000003E-2</v>
       </c>
     </row>
@@ -5907,22 +5982,22 @@
       <c r="C20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="20">
         <v>2.2179540000000001E-2</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="20">
         <v>-7.6295539999999995E-2</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="20">
         <v>0.86970873000000004</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="20">
         <v>9.7840369999999996E-2</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="20">
         <v>0.14893091</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="20">
         <v>1.474786E-2</v>
       </c>
     </row>
@@ -5934,22 +6009,22 @@
       <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="20">
         <v>1.069647E-2</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="20">
         <v>0.62872211</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="20">
         <v>0.86970873000000004</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="20">
         <v>-5.8476790000000001E-2</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="20">
         <v>-9.2534499999999999E-3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="20">
         <v>-0.13555897</v>
       </c>
     </row>
@@ -5961,22 +6036,22 @@
       <c r="C22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="20">
         <v>-9.9994300000000001E-3</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="20">
         <v>-2.0807707</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="20">
         <v>0.86970873000000004</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="20">
         <v>6.0817600000000003E-3</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="20">
         <v>7.288377E-2</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="20">
         <v>-7.5538510000000003E-2</v>
       </c>
     </row>
@@ -5988,22 +6063,22 @@
       <c r="C23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="21">
         <v>5.2963000000000001E-4</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="21">
         <v>-0.1443817</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="21">
         <v>0.86970873000000004</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="21">
         <v>-5.9748379999999997E-2</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="21">
         <v>-2.412421E-2</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="21">
         <v>-0.12994133999999999</v>
       </c>
     </row>
@@ -6015,22 +6090,22 @@
       <c r="C24" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="19">
         <v>-2.1470260000000001E-2</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="19">
         <v>1.5031806999999999</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="19">
         <v>0.90914417000000003</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="19">
         <v>1.167549E-2</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="19">
         <v>7.7606670000000003E-2</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="19">
         <v>-6.2392209999999997E-2</v>
       </c>
     </row>
@@ -6042,22 +6117,22 @@
       <c r="C25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="20">
         <v>5.9511399999999997E-3</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="20">
         <v>5.8567649999999999E-2</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="20">
         <v>0.90914417000000003</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="20">
         <v>-9.8417399999999999E-3</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="20">
         <v>4.773082E-2</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="20">
         <v>-8.2408729999999999E-2</v>
       </c>
     </row>
@@ -6069,22 +6144,22 @@
       <c r="C26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="20">
         <v>-2.2342730000000002E-2</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="20">
         <v>-5.1643109999999999E-2</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="20">
         <v>0.90914417000000003</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="20">
         <v>6.4137200000000005E-2</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="20">
         <v>-3.8784599999999998E-3</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="20">
         <v>-9.5494969999999998E-2</v>
       </c>
     </row>
@@ -6096,22 +6171,22 @@
       <c r="C27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="20">
         <v>-1.7767799999999999E-3</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="20">
         <v>0.96998242999999995</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="20">
         <v>0.88810677999999998</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="20">
         <v>-0.90422066999999995</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="20">
         <v>-0.88430836000000002</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="20">
         <v>-1.0969150999999999</v>
       </c>
     </row>
@@ -6123,22 +6198,22 @@
       <c r="C28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="20">
         <v>-2.1673609999999999E-2</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="20">
         <v>2.9928650000000001E-2</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="20">
         <v>0.90914417000000003</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="20">
         <v>-2.1220670000000001E-2</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="20">
         <v>7.8019320000000003E-2</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="20">
         <v>-0.12548576</v>
       </c>
     </row>
@@ -6150,22 +6225,22 @@
       <c r="C29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="20">
         <v>5.1041899999999998E-3</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="20">
         <v>1.4854613000000001</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="20">
         <v>0.90914417000000003</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="20">
         <v>-4.5923800000000001E-2</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="20">
         <v>2.5367359999999999E-2</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="20">
         <v>-0.11156089</v>
       </c>
     </row>
@@ -6177,22 +6252,22 @@
       <c r="C30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="20">
         <v>2.1616700000000001E-3</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="20">
         <v>-0.41582467000000001</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="20">
         <v>0.90914417000000003</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="20">
         <v>1.295139E-2</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="20">
         <v>2.0273139999999999E-2</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="20">
         <v>-0.11137975</v>
       </c>
     </row>
@@ -6204,22 +6279,22 @@
       <c r="C31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="20">
         <v>-5.2136300000000003E-3</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="20">
         <v>-0.22169676999999999</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="20">
         <v>0.90914417000000003</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="20">
         <v>7.4076119999999995E-2</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="20">
         <v>0.16451260000000001</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="20">
         <v>-3.389764E-2</v>
       </c>
     </row>
@@ -6231,22 +6306,22 @@
       <c r="C32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="20">
         <v>-2.168426E-2</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="20">
         <v>0.94095744000000003</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="20">
         <v>0.90914417000000003</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="20">
         <v>-2.580967E-2</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="20">
         <v>6.4830879999999994E-2</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="20">
         <v>-0.11566384</v>
       </c>
     </row>
@@ -6258,22 +6333,22 @@
       <c r="C33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="20">
         <v>-1.538955E-2</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="20">
         <v>0.31153882999999999</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="20">
         <v>0.90914417000000003</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="20">
         <v>3.4836619999999999E-2</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="20">
         <v>9.3544799999999997E-2</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="20">
         <v>-3.7740509999999998E-2</v>
       </c>
     </row>
@@ -6285,22 +6360,22 @@
       <c r="C34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="21">
         <v>-9.8586400000000001E-3</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="21">
         <v>0.15142294000000001</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="21">
         <v>0.90914417000000003</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="21">
         <v>-1.1732920000000001E-2</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="21">
         <v>5.2056230000000002E-2</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="21">
         <v>-0.11006489999999999</v>
       </c>
     </row>
@@ -6312,22 +6387,22 @@
       <c r="C35" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="19">
         <v>1.2593429999999999E-2</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="19">
         <v>-8.9268200000000002E-3</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="19">
         <v>1.3010048999999999</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="19">
         <v>-7.78171E-2</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="19">
         <v>-6.6258999999999998E-2</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="19">
         <v>-0.12707178999999999</v>
       </c>
     </row>
@@ -6339,22 +6414,22 @@
       <c r="C36" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="20">
         <v>1.5519659999999999E-2</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="20">
         <v>-2.7550410000000001E-2</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="20">
         <v>1.3010048999999999</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="20">
         <v>-1.5685330000000001E-2</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="20">
         <v>2.8641139999999999E-2</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="20">
         <v>-1.9486079999999999E-2</v>
       </c>
     </row>
@@ -6366,22 +6441,22 @@
       <c r="C37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="20">
         <v>4.5959900000000003E-3</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="20">
         <v>4.9409700000000003E-3</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="20">
         <v>1.3010048999999999</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="20">
         <v>2.8829319999999999E-2</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="20">
         <v>4.8506359999999998E-2</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="20">
         <v>-8.3189300000000004E-3</v>
       </c>
     </row>
@@ -6393,22 +6468,22 @@
       <c r="C38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="20">
         <v>4.6692000000000001E-3</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="20">
         <v>0.18733043999999999</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="20">
         <v>1.3010048999999999</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="20">
         <v>7.3562269999999999E-2</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="20">
         <v>6.5356460000000005E-2</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="20">
         <v>2.4660060000000001E-2</v>
       </c>
     </row>
@@ -6420,22 +6495,22 @@
       <c r="C39" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="20">
         <v>-8.5920200000000006E-3</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="20">
         <v>1.264911E-2</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="20">
         <v>1.3010048999999999</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="20">
         <v>7.343682E-2</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="20">
         <v>9.8779640000000002E-2</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="20">
         <v>8.8657300000000005E-3</v>
       </c>
     </row>
@@ -6447,22 +6522,22 @@
       <c r="C40" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="20">
         <v>3.82146E-3</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="20">
         <v>0.48906762999999998</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="20">
         <v>1.3010048999999999</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="20">
         <v>-3.6278619999999998E-2</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="20">
         <v>1.06199E-2</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="20">
         <v>-6.0676580000000001E-2</v>
       </c>
     </row>
@@ -6474,22 +6549,22 @@
       <c r="C41" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="20">
         <v>2.20864E-3</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="20">
         <v>-0.21769569</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="20">
         <v>1.3010048999999999</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="20">
         <v>5.4923079999999999E-2</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="20">
         <v>8.5320359999999998E-2</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="20">
         <v>1.9112199999999999E-3</v>
       </c>
     </row>
@@ -6501,22 +6576,22 @@
       <c r="C42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="20">
         <v>-4.6949499999999998E-3</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="20">
         <v>-0.59126957999999996</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="20">
         <v>1.3010048999999999</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="20">
         <v>0.20077754</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="20">
         <v>0.16279252</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="20">
         <v>8.2086800000000001E-2</v>
       </c>
     </row>
@@ -6528,22 +6603,22 @@
       <c r="C43" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="20">
         <v>-1.826469E-2</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="20">
         <v>0.72975628000000003</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="20">
         <v>1.3010048999999999</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="20">
         <v>-1.4560999999999999E-2</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="20">
         <v>-7.3243700000000002E-3</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="20">
         <v>-0.10617535</v>
       </c>
     </row>
@@ -6555,22 +6630,22 @@
       <c r="C44" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="20">
         <v>8.3329500000000004E-3</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="20">
         <v>1.1070618999999999</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="20">
         <v>1.3010048999999999</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="20">
         <v>-3.374514E-2</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="20">
         <v>-1.0363860000000001E-2</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="20">
         <v>-9.5774789999999999E-2</v>
       </c>
     </row>
@@ -6582,22 +6657,22 @@
       <c r="C45" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="21">
         <v>4.1740630000000001E-2</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="21">
         <v>0.29955199999999998</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="21">
         <v>1.3010048999999999</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="21">
         <v>-8.940874E-2</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="21">
         <v>-2.578548E-2</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I45" s="21">
         <v>-0.11758763999999999</v>
       </c>
     </row>
@@ -6609,22 +6684,22 @@
       <c r="C46" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="19">
         <v>1.467858E-2</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="19">
         <v>0.36684470000000002</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F46" s="19">
         <v>0.85033296999999997</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G46" s="19">
         <v>1.9361469999999999E-2</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="19">
         <v>9.3439980000000006E-2</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I46" s="19">
         <v>-3.1916720000000003E-2</v>
       </c>
     </row>
@@ -6636,22 +6711,22 @@
       <c r="C47" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="20">
         <v>-3.8123100000000002E-3</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="20">
         <v>-4.5532699999999999E-3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="20">
         <v>0.85033296999999997</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="20">
         <v>2.939874E-2</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="20">
         <v>8.4291779999999997E-2</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="20">
         <v>-1.5864909999999999E-2</v>
       </c>
     </row>
@@ -6663,22 +6738,22 @@
       <c r="C48" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="20">
         <v>-1.35205E-3</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="20">
         <v>8.0877699999999997E-2</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="20">
         <v>0.85033296999999997</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="20">
         <v>0.13641689000000001</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="20">
         <v>0.19759673999999999</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="20">
         <v>9.5475199999999996E-2</v>
       </c>
     </row>
@@ -6690,22 +6765,22 @@
       <c r="C49" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="20">
         <v>-5.0435250000000001E-2</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="20">
         <v>7.6719019999999999E-2</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="20">
         <v>0.85033296999999997</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="20">
         <v>0.30286731</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="20">
         <v>0.34729564000000002</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="20">
         <v>0.10813014999999999</v>
       </c>
     </row>
@@ -6717,22 +6792,22 @@
       <c r="C50" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="20">
         <v>-1.5729480000000001E-2</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="20">
         <v>8.0921799999999992E-3</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="20">
         <v>0.85033296999999997</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="20">
         <v>7.6569570000000003E-2</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="20">
         <v>0.17207342</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="20">
         <v>2.8654860000000001E-2</v>
       </c>
     </row>
@@ -6744,22 +6819,22 @@
       <c r="C51" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="20">
         <v>-1.269108E-2</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="20">
         <v>0.41922324999999999</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="20">
         <v>0.85033296999999997</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="20">
         <v>5.5462690000000002E-2</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="20">
         <v>0.1179164</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="20">
         <v>9.0961400000000008E-3</v>
       </c>
     </row>
@@ -6771,22 +6846,22 @@
       <c r="C52" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="20">
         <v>-1.1270500000000001E-3</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="20">
         <v>0.16505647000000001</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="20">
         <v>0.85033296999999997</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="20">
         <v>8.1505759999999997E-2</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="20">
         <v>0.14756431</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="20">
         <v>3.5864939999999998E-2</v>
       </c>
     </row>
@@ -6798,22 +6873,22 @@
       <c r="C53" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="20">
         <v>-6.1255800000000003E-3</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="20">
         <v>4.0408520000000003E-2</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="20">
         <v>0.85033296999999997</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="20">
         <v>0.18806537000000001</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="20">
         <v>0.25103281</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="20">
         <v>0.14713754000000001</v>
       </c>
     </row>
@@ -6825,22 +6900,22 @@
       <c r="C54" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="20">
         <v>-8.6684599999999994E-3</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="20">
         <v>0.34657387000000001</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="20">
         <v>0.85033296999999997</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="20">
         <v>-2.6233099999999999E-2</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="20">
         <v>5.8230329999999997E-2</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="20">
         <v>-6.7772849999999996E-2</v>
       </c>
     </row>
@@ -6852,22 +6927,22 @@
       <c r="C55" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="20">
         <v>8.2527399999999997E-3</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="20">
         <v>-0.95482990999999995</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="20">
         <v>0.85033296999999997</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="20">
         <v>-8.9519180000000004E-2</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="20">
         <v>4.2394099999999997E-2</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="20">
         <v>-0.12413979999999999</v>
       </c>
     </row>
@@ -6879,22 +6954,22 @@
       <c r="C56" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="21">
         <v>-2.5070100000000001E-3</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="21">
         <v>0.15140240999999999</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F56" s="21">
         <v>0.85033296999999997</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="21">
         <v>-8.4235489999999996E-2</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="21">
         <v>4.2840300000000003E-3</v>
       </c>
-      <c r="I56" s="8">
+      <c r="I56" s="21">
         <v>-0.12390075</v>
       </c>
     </row>
@@ -6906,22 +6981,22 @@
       <c r="C57" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="19">
         <v>-4.4886600000000002E-3</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="19">
         <v>0.18352880999999999</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F57" s="19">
         <v>1.2569447</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G57" s="19">
         <v>-7.1964100000000003E-3</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="19">
         <v>-3.4667499999999997E-2</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I57" s="19">
         <v>-0.13346222999999999</v>
       </c>
     </row>
@@ -6933,22 +7008,22 @@
       <c r="C58" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="20">
         <v>2.0827620000000002E-2</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="20">
         <v>-5.31431E-3</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="20">
         <v>1.2569447</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="20">
         <v>0.14301986</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="20">
         <v>0.31882883000000001</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="20">
         <v>4.8404580000000003E-2</v>
       </c>
     </row>
@@ -6960,22 +7035,22 @@
       <c r="C59" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="20">
         <v>-5.1375300000000004E-3</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="20">
         <v>-1.9674899999999999E-2</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="20">
         <v>1.2569447</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="20">
         <v>0.11358273000000001</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="20">
         <v>7.7998600000000001E-2</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="20">
         <v>-4.5260920000000003E-2</v>
       </c>
     </row>
@@ -6987,22 +7062,22 @@
       <c r="C60" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="20">
         <v>1.61947E-3</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="20">
         <v>-3.5768460000000002E-2</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="20">
         <v>1.2569447</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="20">
         <v>-6.7650080000000001E-2</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="20">
         <v>-7.2880630000000002E-2</v>
       </c>
-      <c r="I60" s="3">
+      <c r="I60" s="20">
         <v>-0.35040981999999998</v>
       </c>
     </row>
@@ -7014,22 +7089,22 @@
       <c r="C61" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="20">
         <v>1.7159250000000001E-2</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="20">
         <v>9.56481E-3</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="20">
         <v>1.2569447</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="20">
         <v>7.7929529999999997E-2</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="20">
         <v>0.1584111</v>
       </c>
-      <c r="I61" s="3">
+      <c r="I61" s="20">
         <v>-9.3415880000000007E-2</v>
       </c>
     </row>
@@ -7041,22 +7116,22 @@
       <c r="C62" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="20">
         <v>2.1369100000000001E-3</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="20">
         <v>0.32361415999999998</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="20">
         <v>1.2569447</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="20">
         <v>0.10061945</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="20">
         <v>9.6584059999999999E-2</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="20">
         <v>-5.3711549999999997E-2</v>
       </c>
     </row>
@@ -7068,22 +7143,22 @@
       <c r="C63" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="20">
         <v>5.9693200000000002E-3</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="20">
         <v>9.0743850000000001E-2</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="20">
         <v>1.2569447</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="20">
         <v>7.5905100000000003E-2</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="20">
         <v>5.3845820000000003E-2</v>
       </c>
-      <c r="I63" s="3">
+      <c r="I63" s="20">
         <v>-9.2419420000000002E-2</v>
       </c>
     </row>
@@ -7095,22 +7170,22 @@
       <c r="C64" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="20">
         <v>1.8642740000000001E-2</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="20">
         <v>-1.277239E-2</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="20">
         <v>1.2569447</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64" s="20">
         <v>0.12646971000000001</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="20">
         <v>0.19836903</v>
       </c>
-      <c r="I64" s="3">
+      <c r="I64" s="20">
         <v>-2.708054E-2</v>
       </c>
     </row>
@@ -7122,22 +7197,22 @@
       <c r="C65" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="20">
         <v>2.9429399999999998E-3</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="20">
         <v>0.11324255</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="20">
         <v>1.2569447</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" s="20">
         <v>-8.1892480000000004E-2</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="20">
         <v>-5.5286380000000003E-2</v>
       </c>
-      <c r="I65" s="3">
+      <c r="I65" s="20">
         <v>-0.20277092999999999</v>
       </c>
     </row>
@@ -7149,22 +7224,22 @@
       <c r="C66" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="20">
         <v>-1.6527770000000001E-2</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="20">
         <v>0.34049669999999999</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="20">
         <v>1.2569447</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="20">
         <v>-7.471941E-2</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="20">
         <v>-7.3222499999999996E-2</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="20">
         <v>-0.21127962</v>
       </c>
     </row>
@@ -7176,22 +7251,22 @@
       <c r="C67" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="21">
         <v>6.9041700000000003E-3</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E67" s="21">
         <v>8.6921090000000006E-2</v>
       </c>
-      <c r="F67" s="8">
+      <c r="F67" s="21">
         <v>1.2569447</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G67" s="21">
         <v>-6.3254000000000001E-4</v>
       </c>
-      <c r="H67" s="8">
+      <c r="H67" s="21">
         <v>3.670847E-2</v>
       </c>
-      <c r="I67" s="8">
+      <c r="I67" s="21">
         <v>-0.11529259</v>
       </c>
     </row>
@@ -7203,22 +7278,22 @@
       <c r="C68" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D68" s="19">
         <v>1.138689E-2</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E68" s="19">
         <v>1.0127964</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F68" s="19">
         <v>0.74265141000000001</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G68" s="19">
         <v>2.929083E-2</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H68" s="19">
         <v>6.6898440000000003E-2</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I68" s="19">
         <v>-9.7038879999999994E-2</v>
       </c>
     </row>
@@ -7230,22 +7305,22 @@
       <c r="C69" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="20">
         <v>-8.3585799999999991E-3</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="20">
         <v>-8.3022300000000007E-3</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="20">
         <v>0.74265141000000001</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="20">
         <v>7.0413749999999997E-2</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="20">
         <v>8.2812789999999997E-2</v>
       </c>
-      <c r="I69" s="3">
+      <c r="I69" s="20">
         <v>-9.796067E-2</v>
       </c>
     </row>
@@ -7257,22 +7332,22 @@
       <c r="C70" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="20">
         <v>-1.323045E-2</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="20">
         <v>0.11733378999999999</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="20">
         <v>0.74265141000000001</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="20">
         <v>4.3414910000000001E-2</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="20">
         <v>7.1976010000000007E-2</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I70" s="20">
         <v>-7.6452580000000006E-2</v>
       </c>
     </row>
@@ -7284,22 +7359,22 @@
       <c r="C71" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="20">
         <v>-9.6089759999999996E-2</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="20">
         <v>0.41542148000000001</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="20">
         <v>0.74265141000000001</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="20">
         <v>-0.23043178</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="20">
         <v>-0.21957391000000001</v>
       </c>
-      <c r="I71" s="3">
+      <c r="I71" s="20">
         <v>-0.32483181999999999</v>
       </c>
     </row>
@@ -7311,22 +7386,22 @@
       <c r="C72" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="20">
         <v>-4.0664799999999999E-3</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="20">
         <v>1.6632230000000001E-2</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="20">
         <v>0.74265141000000001</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="20">
         <v>1.9783000000000001E-3</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="20">
         <v>3.3747720000000002E-2</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="20">
         <v>-0.11874313</v>
       </c>
     </row>
@@ -7338,22 +7413,22 @@
       <c r="C73" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="20">
         <v>-2.2440000000000002E-2</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="20">
         <v>0.68898325999999999</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="20">
         <v>0.74265141000000001</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73" s="20">
         <v>2.3253820000000001E-2</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="20">
         <v>6.9519319999999996E-2</v>
       </c>
-      <c r="I73" s="3">
+      <c r="I73" s="20">
         <v>-9.9549760000000001E-2</v>
       </c>
     </row>
@@ -7365,22 +7440,22 @@
       <c r="C74" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="20">
         <v>1.9986100000000001E-3</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="20">
         <v>0.65827155999999998</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="20">
         <v>0.74265141000000001</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="20">
         <v>4.596157E-2</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="20">
         <v>0.10120484</v>
       </c>
-      <c r="I74" s="3">
+      <c r="I74" s="20">
         <v>-7.6637570000000002E-2</v>
       </c>
     </row>
@@ -7392,22 +7467,22 @@
       <c r="C75" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="20">
         <v>-1.1814760000000001E-2</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="20">
         <v>9.5713110000000004E-2</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="20">
         <v>0.74265141000000001</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="20">
         <v>-8.7976200000000004E-2</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="20">
         <v>-1.7663020000000001E-2</v>
       </c>
-      <c r="I75" s="3">
+      <c r="I75" s="20">
         <v>-0.18688368999999999</v>
       </c>
     </row>
@@ -7419,22 +7494,22 @@
       <c r="C76" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="20">
         <v>3.9255599999999998E-3</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="20">
         <v>0.56773616000000005</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="20">
         <v>0.74265141000000001</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="20">
         <v>-1.785341E-2</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="20">
         <v>4.9067769999999997E-2</v>
       </c>
-      <c r="I76" s="3">
+      <c r="I76" s="20">
         <v>-0.12630173</v>
       </c>
     </row>
@@ -7446,22 +7521,22 @@
       <c r="C77" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="20">
         <v>-4.8134169999999997E-2</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="20">
         <v>-1.8907335999999999</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="20">
         <v>0.74265141000000001</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77" s="20">
         <v>-6.0384200000000001E-3</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="20">
         <v>5.2426849999999997E-2</v>
       </c>
-      <c r="I77" s="3">
+      <c r="I77" s="20">
         <v>-0.1182248</v>
       </c>
     </row>
@@ -7473,22 +7548,22 @@
       <c r="C78" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D78" s="21">
         <v>1.308815E-2</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E78" s="21">
         <v>2.684599E-2</v>
       </c>
-      <c r="F78" s="8">
+      <c r="F78" s="21">
         <v>0.74265141000000001</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G78" s="21">
         <v>-2.9716599999999999E-2</v>
       </c>
-      <c r="H78" s="8">
+      <c r="H78" s="21">
         <v>1.272968E-2</v>
       </c>
-      <c r="I78" s="8">
+      <c r="I78" s="21">
         <v>-0.14438887</v>
       </c>
     </row>
@@ -7500,22 +7575,22 @@
       <c r="C79" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D79" s="19">
         <v>-1.909127E-2</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E79" s="19">
         <v>0.16647258000000001</v>
       </c>
-      <c r="F79" s="14">
+      <c r="F79" s="19">
         <v>-0.10130751</v>
       </c>
-      <c r="G79" s="14">
+      <c r="G79" s="19">
         <v>-4.6204839999999997E-2</v>
       </c>
-      <c r="H79" s="14">
+      <c r="H79" s="19">
         <v>3.9690940000000001E-2</v>
       </c>
-      <c r="I79" s="14">
+      <c r="I79" s="19">
         <v>-7.4390689999999995E-2</v>
       </c>
     </row>
@@ -7527,22 +7602,22 @@
       <c r="C80" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="20">
         <v>9.0216999999999999E-4</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="20">
         <v>6.5239199999999999E-3</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="20">
         <v>-0.10130751</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G80" s="20">
         <v>-4.403903E-2</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="20">
         <v>6.6011189999999997E-2</v>
       </c>
-      <c r="I80" s="3">
+      <c r="I80" s="20">
         <v>-0.10180367999999999</v>
       </c>
     </row>
@@ -7554,22 +7629,22 @@
       <c r="C81" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="20">
         <v>-2.581166E-2</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="20">
         <v>6.9949209999999998E-2</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="20">
         <v>-0.10130751</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="20">
         <v>-5.1256620000000003E-2</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="20">
         <v>4.061621E-2</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="20">
         <v>-7.7741969999999994E-2</v>
       </c>
     </row>
@@ -7581,22 +7656,22 @@
       <c r="C82" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="20">
         <v>0.10778962</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="20">
         <v>1.8190060000000001E-2</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="20">
         <v>-0.10130751</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82" s="20">
         <v>-0.23681777000000001</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="20">
         <v>-0.14618334999999999</v>
       </c>
-      <c r="I82" s="3">
+      <c r="I82" s="20">
         <v>-0.27891168</v>
       </c>
     </row>
@@ -7608,22 +7683,22 @@
       <c r="C83" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="20">
         <v>-3.5934920000000002E-2</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="20">
         <v>3.24662E-3</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="20">
         <v>-0.10130751</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="20">
         <v>-2.2603850000000002E-2</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="20">
         <v>9.5343999999999995E-4</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="20">
         <v>-6.9449629999999998E-2</v>
       </c>
     </row>
@@ -7635,22 +7710,22 @@
       <c r="C84" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="20">
         <v>-3.1614330000000003E-2</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="20">
         <v>0.36735377000000002</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="20">
         <v>-0.10130751</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="20">
         <v>-4.8601690000000003E-2</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="20">
         <v>4.1056009999999997E-2</v>
       </c>
-      <c r="I84" s="3">
+      <c r="I84" s="20">
         <v>-7.166554E-2</v>
       </c>
     </row>
@@ -7662,22 +7737,22 @@
       <c r="C85" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="20">
         <v>-1.629065E-2</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="20">
         <v>0.53175802999999999</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="20">
         <v>-0.10130751</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G85" s="20">
         <v>-4.3101849999999997E-2</v>
       </c>
-      <c r="H85" s="3">
+      <c r="H85" s="20">
         <v>5.1783120000000002E-2</v>
       </c>
-      <c r="I85" s="3">
+      <c r="I85" s="20">
         <v>-7.1819220000000003E-2</v>
       </c>
     </row>
@@ -7689,22 +7764,22 @@
       <c r="C86" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="20">
         <v>-2.5882990000000002E-2</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="20">
         <v>4.2120209999999998E-2</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="20">
         <v>-0.10130751</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="20">
         <v>0.19895943999999999</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H86" s="20">
         <v>0.30387320000000001</v>
       </c>
-      <c r="I86" s="3">
+      <c r="I86" s="20">
         <v>0.19968192000000001</v>
       </c>
     </row>
@@ -7716,22 +7791,22 @@
       <c r="C87" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="20">
         <v>-2.590435E-2</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="20">
         <v>8.3966319999999997E-2</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="20">
         <v>-0.10130751</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G87" s="20">
         <v>-0.10016066999999999</v>
       </c>
-      <c r="H87" s="3">
+      <c r="H87" s="20">
         <v>-1.140849E-2</v>
       </c>
-      <c r="I87" s="3">
+      <c r="I87" s="20">
         <v>-0.13102285999999999</v>
       </c>
     </row>
@@ -7743,22 +7818,22 @@
       <c r="C88" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="20">
         <v>-1.3806840000000001E-2</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="20">
         <v>1.2357221</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="20">
         <v>-0.10130751</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G88" s="20">
         <v>1.269762E-2</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="20">
         <v>8.4895129999999999E-2</v>
       </c>
-      <c r="I88" s="3">
+      <c r="I88" s="20">
         <v>-2.7059499999999999E-3</v>
       </c>
     </row>
@@ -7770,22 +7845,22 @@
       <c r="C89" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="21">
         <v>2.2892E-4</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E89" s="21">
         <v>7.0198010000000005E-2</v>
       </c>
-      <c r="F89" s="8">
+      <c r="F89" s="21">
         <v>-0.10130751</v>
       </c>
-      <c r="G89" s="8">
+      <c r="G89" s="21">
         <v>-5.590403E-2</v>
       </c>
-      <c r="H89" s="8">
+      <c r="H89" s="21">
         <v>8.0357390000000001E-2</v>
       </c>
-      <c r="I89" s="8">
+      <c r="I89" s="21">
         <v>-7.5423710000000005E-2</v>
       </c>
     </row>
@@ -7797,22 +7872,22 @@
       <c r="C90" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="14">
+      <c r="D90" s="19">
         <v>1.068874E-2</v>
       </c>
-      <c r="E90" s="14">
+      <c r="E90" s="19">
         <v>0.54887885000000003</v>
       </c>
-      <c r="F90" s="14">
+      <c r="F90" s="19">
         <v>0.64408030999999999</v>
       </c>
-      <c r="G90" s="14">
+      <c r="G90" s="19">
         <v>-7.850414E-2</v>
       </c>
-      <c r="H90" s="14">
+      <c r="H90" s="19">
         <v>1.5193369999999999E-2</v>
       </c>
-      <c r="I90" s="14">
+      <c r="I90" s="19">
         <v>-7.0801180000000005E-2</v>
       </c>
     </row>
@@ -7824,22 +7899,22 @@
       <c r="C91" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="20">
         <v>1.751788E-2</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="20">
         <v>6.4664800000000001E-3</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="20">
         <v>0.64408030999999999</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="20">
         <v>3.08136E-2</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="20">
         <v>8.1176399999999996E-2</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="20">
         <v>-2.3723300000000002E-3</v>
       </c>
     </row>
@@ -7851,22 +7926,22 @@
       <c r="C92" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="20">
         <v>-5.08253E-3</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="20">
         <v>0.25290445</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="20">
         <v>0.64408030999999999</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92" s="20">
         <v>-1.7039999999999999E-5</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92" s="20">
         <v>0.10415901</v>
       </c>
-      <c r="I92" s="3">
+      <c r="I92" s="20">
         <v>-9.8903099999999994E-3</v>
       </c>
     </row>
@@ -7878,22 +7953,22 @@
       <c r="C93" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="20">
         <v>3.7859730000000001E-2</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="20">
         <v>0.27602137999999998</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="20">
         <v>0.64408030999999999</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93" s="20">
         <v>-0.21765971000000001</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H93" s="20">
         <v>7.6582600000000001E-2</v>
       </c>
-      <c r="I93" s="3">
+      <c r="I93" s="20">
         <v>-0.17338083000000001</v>
       </c>
     </row>
@@ -7905,22 +7980,22 @@
       <c r="C94" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="20">
         <v>1.7769409999999999E-2</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="20">
         <v>0.63551197999999998</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="20">
         <v>0.64408030999999999</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="20">
         <v>-4.635251E-2</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="20">
         <v>3.5398079999999998E-2</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="20">
         <v>-7.0875279999999999E-2</v>
       </c>
     </row>
@@ -7932,22 +8007,22 @@
       <c r="C95" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="20">
         <v>-5.1812100000000003E-3</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="20">
         <v>0.85915353999999999</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="20">
         <v>0.64408030999999999</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G95" s="20">
         <v>-4.961256E-2</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H95" s="20">
         <v>2.921638E-2</v>
       </c>
-      <c r="I95" s="3">
+      <c r="I95" s="20">
         <v>-7.6161740000000006E-2</v>
       </c>
     </row>
@@ -7959,22 +8034,22 @@
       <c r="C96" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="20">
         <v>0.36046289999999997</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="20">
         <v>-0.32080687000000002</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="20">
         <v>0.64408030999999999</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G96" s="20">
         <v>0.13333700000000001</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96" s="20">
         <v>0.23369866</v>
       </c>
-      <c r="I96" s="3">
+      <c r="I96" s="20">
         <v>0.11754655999999999</v>
       </c>
     </row>
@@ -7986,22 +8061,22 @@
       <c r="C97" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="20">
         <v>-2.779964E-2</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="20">
         <v>1.6378012</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="20">
         <v>0.64408030999999999</v>
       </c>
-      <c r="G97" s="3">
+      <c r="G97" s="20">
         <v>-7.4175669999999999E-2</v>
       </c>
-      <c r="H97" s="3">
+      <c r="H97" s="20">
         <v>9.9309700000000008E-3</v>
       </c>
-      <c r="I97" s="3">
+      <c r="I97" s="20">
         <v>-0.11136918</v>
       </c>
     </row>
@@ -8013,22 +8088,22 @@
       <c r="C98" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="20">
         <v>-2.1223530000000001E-2</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="20">
         <v>-0.77938194000000005</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="20">
         <v>0.64408030999999999</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98" s="20">
         <v>-6.2319840000000001E-2</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H98" s="20">
         <v>3.0346020000000001E-2</v>
       </c>
-      <c r="I98" s="3">
+      <c r="I98" s="20">
         <v>-9.8772680000000002E-2</v>
       </c>
     </row>
@@ -8040,22 +8115,22 @@
       <c r="C99" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D99" s="8">
+      <c r="D99" s="21">
         <v>3.4154799999999998E-3</v>
       </c>
-      <c r="E99" s="8">
+      <c r="E99" s="21">
         <v>0.65852893000000001</v>
       </c>
-      <c r="F99" s="8">
+      <c r="F99" s="21">
         <v>0.64408030999999999</v>
       </c>
-      <c r="G99" s="8">
+      <c r="G99" s="21">
         <v>-2.7815030000000001E-2</v>
       </c>
-      <c r="H99" s="8">
+      <c r="H99" s="21">
         <v>2.2489390000000001E-2</v>
       </c>
-      <c r="I99" s="8">
+      <c r="I99" s="21">
         <v>-5.5221810000000003E-2</v>
       </c>
     </row>
@@ -8067,22 +8142,22 @@
       <c r="C100" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D100" s="14">
+      <c r="D100" s="19">
         <v>6.5358500000000002E-3</v>
       </c>
-      <c r="E100" s="14">
+      <c r="E100" s="19">
         <v>4.8679E-2</v>
       </c>
-      <c r="F100" s="14">
+      <c r="F100" s="19">
         <v>2.5656121999999999</v>
       </c>
-      <c r="G100" s="14">
+      <c r="G100" s="19">
         <v>-9.4307879999999997E-2</v>
       </c>
-      <c r="H100" s="14">
+      <c r="H100" s="19">
         <v>-5.9491960000000003E-2</v>
       </c>
-      <c r="I100" s="14">
+      <c r="I100" s="19">
         <v>-0.15853327</v>
       </c>
     </row>
@@ -8094,22 +8169,22 @@
       <c r="C101" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="20">
         <v>-1.5621E-4</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="20">
         <v>9.9854000000000002E-4</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="20">
         <v>2.5656121999999999</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="20">
         <v>-4.624197E-2</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="20">
         <v>2.705714E-2</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="20">
         <v>-9.1605450000000005E-2</v>
       </c>
     </row>
@@ -8121,22 +8196,22 @@
       <c r="C102" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="20">
         <v>-4.3853900000000003E-3</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="20">
         <v>3.2468000000000002E-3</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="20">
         <v>2.5656121999999999</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="20">
         <v>-3.110299E-2</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="20">
         <v>1.8407570000000002E-2</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="20">
         <v>-8.1377989999999997E-2</v>
       </c>
     </row>
@@ -8148,22 +8223,22 @@
       <c r="C103" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="20">
         <v>-2.946383E-2</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103" s="20">
         <v>2.551022E-2</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="20">
         <v>2.5656121999999999</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G103" s="20">
         <v>3.3528950000000002E-2</v>
       </c>
-      <c r="H103" s="3">
+      <c r="H103" s="20">
         <v>9.5043959999999997E-2</v>
       </c>
-      <c r="I103" s="3">
+      <c r="I103" s="20">
         <v>-7.6090069999999996E-2</v>
       </c>
     </row>
@@ -8175,22 +8250,22 @@
       <c r="C104" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="20">
         <v>1.87948E-3</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104" s="20">
         <v>5.3015449999999999E-2</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104" s="20">
         <v>2.5656121999999999</v>
       </c>
-      <c r="G104" s="3">
+      <c r="G104" s="20">
         <v>-4.6116230000000001E-2</v>
       </c>
-      <c r="H104" s="3">
+      <c r="H104" s="20">
         <v>-2.1463E-4</v>
       </c>
-      <c r="I104" s="3">
+      <c r="I104" s="20">
         <v>-0.11119559</v>
       </c>
     </row>
@@ -8202,22 +8277,22 @@
       <c r="C105" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="20">
         <v>-3.24465E-3</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="20">
         <v>6.2517859999999995E-2</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="20">
         <v>2.5656121999999999</v>
       </c>
-      <c r="G105" s="3">
+      <c r="G105" s="20">
         <v>1.8778659999999999E-2</v>
       </c>
-      <c r="H105" s="3">
+      <c r="H105" s="20">
         <v>6.3494350000000005E-2</v>
       </c>
-      <c r="I105" s="3">
+      <c r="I105" s="20">
         <v>-5.0198529999999998E-2</v>
       </c>
     </row>
@@ -8229,22 +8304,22 @@
       <c r="C106" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="20">
         <v>-3.25143E-3</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="20">
         <v>0.14794093</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="20">
         <v>2.5656121999999999</v>
       </c>
-      <c r="G106" s="3">
+      <c r="G106" s="20">
         <v>0.23067173999999999</v>
       </c>
-      <c r="H106" s="3">
+      <c r="H106" s="20">
         <v>0.37000776000000002</v>
       </c>
-      <c r="I106" s="3">
+      <c r="I106" s="20">
         <v>0.15801641999999999</v>
       </c>
     </row>
@@ -8256,22 +8331,22 @@
       <c r="C107" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="20">
         <v>-1.60311E-3</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="20">
         <v>2.033277E-2</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107" s="20">
         <v>2.5656121999999999</v>
       </c>
-      <c r="G107" s="3">
+      <c r="G107" s="20">
         <v>-6.0296889999999999E-2</v>
       </c>
-      <c r="H107" s="3">
+      <c r="H107" s="20">
         <v>5.3005600000000002E-3</v>
       </c>
-      <c r="I107" s="3">
+      <c r="I107" s="20">
         <v>-0.12062119</v>
       </c>
     </row>
@@ -8283,22 +8358,22 @@
       <c r="C108" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="20">
         <v>-1.359692E-2</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="20">
         <v>0.38229215999999999</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="20">
         <v>2.5656121999999999</v>
       </c>
-      <c r="G108" s="3">
+      <c r="G108" s="20">
         <v>-1.1922240000000001E-2</v>
       </c>
-      <c r="H108" s="3">
+      <c r="H108" s="20">
         <v>9.0028E-3</v>
       </c>
-      <c r="I108" s="3">
+      <c r="I108" s="20">
         <v>-8.0062449999999993E-2</v>
       </c>
     </row>
@@ -8310,22 +8385,22 @@
       <c r="C109" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D109" s="8">
+      <c r="D109" s="21">
         <v>1.6706500000000001E-3</v>
       </c>
-      <c r="E109" s="8">
+      <c r="E109" s="21">
         <v>6.3529760000000005E-2</v>
       </c>
-      <c r="F109" s="8">
+      <c r="F109" s="21">
         <v>2.5656121999999999</v>
       </c>
-      <c r="G109" s="8">
+      <c r="G109" s="21">
         <v>-2.8270839999999998E-2</v>
       </c>
-      <c r="H109" s="8">
+      <c r="H109" s="21">
         <v>8.7601830000000006E-2</v>
       </c>
-      <c r="I109" s="8">
+      <c r="I109" s="21">
         <v>-6.7910330000000005E-2</v>
       </c>
     </row>
@@ -8333,78 +8408,6 @@
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{D0F153CB-9686-4BFE-969C-D9DD41371C77}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D109">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E109">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F109">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G109">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H109">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I109">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8418,10 +8421,10 @@
   <dimension ref="A1:L112"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12474,114 +12477,6 @@
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{F03D5913-FB1B-4A2F-8016-1E46867F229D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D109">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E109">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F109">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G109">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H109">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I109">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J109">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K109">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L109">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12599,7 +12494,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15559,78 +15454,6 @@
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{051C921B-331F-46DA-AF08-15ED2A590264}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D109">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E109">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F109">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G109">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H109">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I109">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -15647,7 +15470,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2:L109"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19700,114 +19523,6 @@
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{966C0C79-114B-4E47-9C2D-62D66B28C043}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D109">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E109">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F109">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G109">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H109">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I109">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J109">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K109">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L109">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -19825,7 +19540,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2:G11"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20089,78 +19804,6 @@
     <row r="12" spans="1:7" ht="15.75" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B11">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C11">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D11">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E11">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F11">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G11">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -20177,7 +19820,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2:J11"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20557,114 +20200,6 @@
     <row r="12" spans="1:10" ht="15.75" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B11">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C11">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D11">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E11">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F11">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G11">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H11">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I11">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J11">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -20676,13 +20211,13 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2:G11"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20693,7 +20228,7 @@
     <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -20713,8 +20248,11 @@
       <c r="G1" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1">
+      <c r="I1" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickTop="1">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
@@ -20737,7 +20275,7 @@
         <v>-1.2135</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -20760,7 +20298,7 @@
         <v>-7.3694599999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -20783,7 +20321,7 @@
         <v>-0.36248239999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -20806,7 +20344,7 @@
         <v>-2.2580099999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -20829,7 +20367,7 @@
         <v>-1.85554E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -20852,7 +20390,7 @@
         <v>-0.1166924</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -20875,7 +20413,7 @@
         <v>-0.11564290000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -20898,7 +20436,7 @@
         <v>-7.7817600000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -20921,7 +20459,7 @@
         <v>-5.7240100000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -20944,81 +20482,9 @@
         <v>-4.9475499999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickTop="1"/>
+    <row r="12" spans="1:9" ht="15.75" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B11">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C11">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D11">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E11">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F11">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G11">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -21035,7 +20501,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21415,114 +20881,6 @@
     <row r="12" spans="1:10" ht="15.75" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B11">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C11">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D11">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E11">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F11">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G11">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H11">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I11">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J11">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Laborshare/accounting.xlsx
+++ b/Laborshare/accounting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Dropbox\Study\GitHub\public\Laborshare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7818F411-C39C-41F5-9C67-B7986DBF97C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F6C1F5-F78B-42B5-9266-272A51C99277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{129C318B-93D8-4464-A9AE-1723E55074BC}"/>
   </bookViews>
@@ -1425,8 +1425,8 @@
       <xdr:rowOff>105103</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="368499" cy="205121"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1546,7 +1546,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1861,8 +1861,8 @@
       <xdr:rowOff>98533</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="368499" cy="205121"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -1982,7 +1982,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -3888,7 +3888,7 @@
   <dimension ref="B3:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4018,7 +4018,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4324,7 +4324,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4706,7 +4706,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5394,7 +5394,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8314,10 +8314,10 @@
   <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D71" sqref="D71"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11882,10 +11882,10 @@
   <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F71" sqref="F71"/>
+      <selection pane="bottomRight" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14810,7 +14810,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I88" sqref="I88"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18407,7 +18407,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18687,7 +18687,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19040,7 +19040,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19320,7 +19320,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Laborshare/accounting.xlsx
+++ b/Laborshare/accounting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Dropbox\Study\GitHub\public\Laborshare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F6C1F5-F78B-42B5-9266-272A51C99277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0355DFF3-AA82-4B28-9A65-FEAAC8DA3EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{129C318B-93D8-4464-A9AE-1723E55074BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{129C318B-93D8-4464-A9AE-1723E55074BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="4" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="57">
   <si>
     <t>location</t>
   </si>
@@ -260,6 +260,10 @@
     <t>chg_gr
 _ENT
 _USdetail</t>
+  </si>
+  <si>
+    <t>gr_IHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3887,7 +3891,7 @@
   </sheetPr>
   <dimension ref="B3:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -5390,11 +5394,11 @@
   </sheetPr>
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5423,7 +5427,7 @@
         <v>26</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>38</v>

--- a/Laborshare/accounting.xlsx
+++ b/Laborshare/accounting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayjeo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Dropbox\Study\GitHub\public\Laborshare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12136B27-3A7A-4F5E-8C49-D5950D406A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CEE4A6-8711-4A8A-BBDF-B71DE33A93FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{129C318B-93D8-4464-A9AE-1723E55074BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{129C318B-93D8-4464-A9AE-1723E55074BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -371,8 +371,8 @@
       <xdr:rowOff>314325</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="368499" cy="205121"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -492,7 +492,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -589,8 +589,8 @@
       <xdr:rowOff>301845</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="368499" cy="205121"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -710,7 +710,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -807,8 +807,8 @@
       <xdr:rowOff>300961</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="368499" cy="205121"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -928,7 +928,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1025,8 +1025,8 @@
       <xdr:rowOff>397749</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="368499" cy="205121"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1146,7 +1146,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1535,7 +1535,7 @@
   </sheetPr>
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4178,7 +4178,7 @@
   </sheetPr>
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6822,7 +6822,7 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -7094,8 +7094,8 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
